--- a/shiny_app/raw_data/responses_1.xlsx
+++ b/shiny_app/raw_data/responses_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottdetjen/Desktop/RProjects/Social_Connections_2024.2/shiny_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55C2D6-CB81-5A41-B4D7-9FF07C91C13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D42A9-14A7-5B49-9332-DA499E9C1024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="2000" windowWidth="23460" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3241,6 +3241,9 @@
     <t>Jacky (NA last name)</t>
   </si>
   <si>
+    <t>First and last name (this won't be linked to your responses ever, we just need to assign you a random ID)</t>
+  </si>
+  <si>
     <t>Ryan Durando</t>
   </si>
   <si>
@@ -3716,16 +3719,13 @@
   </si>
   <si>
     <t>Desmond Cudjoe</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3739,6 +3739,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3763,7 +3770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3771,6 +3778,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3991,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:Z409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V159" sqref="V159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4074,7 +4082,7 @@
         <v>18</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>1232</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4314,7 +4322,7 @@
         <v>63</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4394,7 +4402,7 @@
         <v>70</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4474,7 +4482,7 @@
         <v>80</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4634,7 +4642,7 @@
         <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4861,8 +4869,8 @@
       <c r="U11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="3">
-        <v>4.5</v>
+      <c r="V11" s="5">
+        <v>4</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>20</v>
@@ -4874,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,7 +5042,7 @@
         <v>63</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,7 +5202,7 @@
         <v>48</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5354,7 +5362,7 @@
         <v>63</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5502,7 +5510,7 @@
         <v>60</v>
       </c>
       <c r="V19" s="1">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>140</v>
@@ -5582,7 +5590,7 @@
         <v>60</v>
       </c>
       <c r="V20" s="1">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>140</v>
@@ -5594,7 +5602,7 @@
         <v>35</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5674,7 +5682,7 @@
         <v>48</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,7 +5842,7 @@
         <v>80</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5914,7 +5922,7 @@
         <v>35</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,7 +6082,7 @@
         <v>63</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6234,7 +6242,7 @@
         <v>80</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6314,7 +6322,7 @@
         <v>35</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,7 +6482,7 @@
         <v>63</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6702,7 +6710,7 @@
         <v>60</v>
       </c>
       <c r="V34" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>78</v>
@@ -6714,7 +6722,7 @@
         <v>35</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6794,7 +6802,7 @@
         <v>80</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7034,7 +7042,7 @@
         <v>80</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7194,7 +7202,7 @@
         <v>35</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7354,7 +7362,7 @@
         <v>35</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7514,7 +7522,7 @@
         <v>48</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7594,7 +7602,7 @@
         <v>35</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7674,7 +7682,7 @@
         <v>63</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7754,7 +7762,7 @@
         <v>35</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7914,7 +7922,7 @@
         <v>80</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8234,7 +8242,7 @@
         <v>63</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8474,7 +8482,7 @@
         <v>80</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8554,7 +8562,7 @@
         <v>63</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8634,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -8714,7 +8722,7 @@
         <v>80</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9022,7 +9030,7 @@
         <v>60</v>
       </c>
       <c r="V63" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>20</v>
@@ -9034,7 +9042,7 @@
         <v>35</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9194,7 +9202,7 @@
         <v>80</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9274,7 +9282,7 @@
         <v>48</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9434,7 +9442,7 @@
         <v>35</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9754,7 +9762,7 @@
         <v>35</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -9994,7 +10002,7 @@
         <v>35</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -10234,7 +10242,7 @@
         <v>80</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -10314,7 +10322,7 @@
         <v>48</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -10474,7 +10482,7 @@
         <v>63</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -10554,7 +10562,7 @@
         <v>48</v>
       </c>
       <c r="Z82" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -10874,7 +10882,7 @@
         <v>80</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11034,7 +11042,7 @@
         <v>35</v>
       </c>
       <c r="Z88" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11114,7 +11122,7 @@
         <v>63</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11194,7 +11202,7 @@
         <v>48</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11274,7 +11282,7 @@
         <v>63</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11354,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11594,7 +11602,7 @@
         <v>80</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11674,7 +11682,7 @@
         <v>35</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -11994,7 +12002,7 @@
         <v>80</v>
       </c>
       <c r="Z100" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -12074,7 +12082,7 @@
         <v>63</v>
       </c>
       <c r="Z101" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -12234,7 +12242,7 @@
         <v>80</v>
       </c>
       <c r="Z103" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -12552,7 +12560,7 @@
         <v>80</v>
       </c>
       <c r="Z107" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -12712,7 +12720,7 @@
         <v>48</v>
       </c>
       <c r="Z109" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13020,7 +13028,7 @@
         <v>60</v>
       </c>
       <c r="V113" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W113" s="1" t="s">
         <v>140</v>
@@ -13032,7 +13040,7 @@
         <v>35</v>
       </c>
       <c r="Z113" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13112,7 +13120,7 @@
         <v>35</v>
       </c>
       <c r="Z114" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13192,7 +13200,7 @@
         <v>35</v>
       </c>
       <c r="Z115" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13272,7 +13280,7 @@
         <v>35</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13352,7 +13360,7 @@
         <v>35</v>
       </c>
       <c r="Z117" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13432,7 +13440,7 @@
         <v>63</v>
       </c>
       <c r="Z118" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13672,7 +13680,7 @@
         <v>63</v>
       </c>
       <c r="Z121" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -13832,7 +13840,7 @@
         <v>35</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14072,7 +14080,7 @@
         <v>35</v>
       </c>
       <c r="Z126" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14152,7 +14160,7 @@
         <v>48</v>
       </c>
       <c r="Z127" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14232,7 +14240,7 @@
         <v>35</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14392,7 +14400,7 @@
         <v>35</v>
       </c>
       <c r="Z130" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14472,7 +14480,7 @@
         <v>35</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14632,7 +14640,7 @@
         <v>80</v>
       </c>
       <c r="Z133" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -14712,7 +14720,7 @@
         <v>35</v>
       </c>
       <c r="Z134" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -15032,7 +15040,7 @@
         <v>35</v>
       </c>
       <c r="Z138" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -15352,7 +15360,7 @@
         <v>48</v>
       </c>
       <c r="Z142" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -15592,7 +15600,7 @@
         <v>48</v>
       </c>
       <c r="Z145" s="4" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -15672,7 +15680,7 @@
         <v>80</v>
       </c>
       <c r="Z146" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -15740,7 +15748,7 @@
         <v>60</v>
       </c>
       <c r="V147" s="3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="W147" s="1" t="s">
         <v>78</v>
@@ -16072,7 +16080,7 @@
         <v>48</v>
       </c>
       <c r="Z151" s="4" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -16232,7 +16240,7 @@
         <v>35</v>
       </c>
       <c r="Z153" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -16312,7 +16320,7 @@
         <v>70</v>
       </c>
       <c r="Z154" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -16552,7 +16560,7 @@
         <v>70</v>
       </c>
       <c r="Z157" s="4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -16712,7 +16720,7 @@
         <v>70</v>
       </c>
       <c r="Z159" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -16952,7 +16960,7 @@
         <v>35</v>
       </c>
       <c r="Z162" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -17112,7 +17120,7 @@
         <v>35</v>
       </c>
       <c r="Z164" s="4" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -17272,7 +17280,7 @@
         <v>48</v>
       </c>
       <c r="Z166" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -17352,7 +17360,7 @@
         <v>63</v>
       </c>
       <c r="Z167" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -17432,7 +17440,7 @@
         <v>70</v>
       </c>
       <c r="Z168" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -17592,7 +17600,7 @@
         <v>35</v>
       </c>
       <c r="Z170" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18152,7 +18160,7 @@
         <v>63</v>
       </c>
       <c r="Z177" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18232,7 +18240,7 @@
         <v>80</v>
       </c>
       <c r="Z178" s="4" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18312,7 +18320,7 @@
         <v>80</v>
       </c>
       <c r="Z179" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18392,7 +18400,7 @@
         <v>80</v>
       </c>
       <c r="Z180" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18472,7 +18480,7 @@
         <v>80</v>
       </c>
       <c r="Z181" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18632,7 +18640,7 @@
         <v>48</v>
       </c>
       <c r="Z183" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18792,7 +18800,7 @@
         <v>48</v>
       </c>
       <c r="Z185" s="4" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -18952,7 +18960,7 @@
         <v>80</v>
       </c>
       <c r="Z187" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -19112,7 +19120,7 @@
         <v>80</v>
       </c>
       <c r="Z189" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -19512,7 +19520,7 @@
         <v>48</v>
       </c>
       <c r="Z194" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -19912,7 +19920,7 @@
         <v>48</v>
       </c>
       <c r="Z199" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -19992,7 +20000,7 @@
         <v>80</v>
       </c>
       <c r="Z200" s="4" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20072,7 +20080,7 @@
         <v>35</v>
       </c>
       <c r="Z201" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20152,7 +20160,7 @@
         <v>70</v>
       </c>
       <c r="Z202" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20312,7 +20320,7 @@
         <v>35</v>
       </c>
       <c r="Z204" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20472,7 +20480,7 @@
         <v>48</v>
       </c>
       <c r="Z206" s="4" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20552,7 +20560,7 @@
         <v>35</v>
       </c>
       <c r="Z207" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20872,7 +20880,7 @@
         <v>48</v>
       </c>
       <c r="Z211" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -20952,7 +20960,7 @@
         <v>48</v>
       </c>
       <c r="Z212" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21032,7 +21040,7 @@
         <v>48</v>
       </c>
       <c r="Z213" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21112,7 +21120,7 @@
         <v>35</v>
       </c>
       <c r="Z214" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21272,7 +21280,7 @@
         <v>48</v>
       </c>
       <c r="Z216" s="4" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21352,7 +21360,7 @@
         <v>80</v>
       </c>
       <c r="Z217" s="4" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21432,7 +21440,7 @@
         <v>70</v>
       </c>
       <c r="Z218" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21592,7 +21600,7 @@
         <v>48</v>
       </c>
       <c r="Z220" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21672,7 +21680,7 @@
         <v>80</v>
       </c>
       <c r="Z221" s="4" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -21752,7 +21760,7 @@
         <v>48</v>
       </c>
       <c r="Z222" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22312,7 +22320,7 @@
         <v>48</v>
       </c>
       <c r="Z229" s="4" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22392,7 +22400,7 @@
         <v>80</v>
       </c>
       <c r="Z230" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22552,7 +22560,7 @@
         <v>35</v>
       </c>
       <c r="Z232" s="4" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22632,7 +22640,7 @@
         <v>80</v>
       </c>
       <c r="Z233" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22792,7 +22800,7 @@
         <v>80</v>
       </c>
       <c r="Z235" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22872,7 +22880,7 @@
         <v>70</v>
       </c>
       <c r="Z236" s="4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -22952,7 +22960,7 @@
         <v>63</v>
       </c>
       <c r="Z237" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23032,7 +23040,7 @@
         <v>48</v>
       </c>
       <c r="Z238" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23192,7 +23200,7 @@
         <v>35</v>
       </c>
       <c r="Z240" s="4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23352,7 +23360,7 @@
         <v>63</v>
       </c>
       <c r="Z242" s="4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23432,7 +23440,7 @@
         <v>63</v>
       </c>
       <c r="Z243" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23512,7 +23520,7 @@
         <v>80</v>
       </c>
       <c r="Z244" s="4" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23592,7 +23600,7 @@
         <v>48</v>
       </c>
       <c r="Z245" s="4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23672,7 +23680,7 @@
         <v>48</v>
       </c>
       <c r="Z246" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23752,7 +23760,7 @@
         <v>35</v>
       </c>
       <c r="Z247" s="4" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23832,7 +23840,7 @@
         <v>70</v>
       </c>
       <c r="Z248" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23912,7 +23920,7 @@
         <v>35</v>
       </c>
       <c r="Z249" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -23992,7 +24000,7 @@
         <v>80</v>
       </c>
       <c r="Z250" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24232,7 +24240,7 @@
         <v>63</v>
       </c>
       <c r="Z253" s="4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24312,7 +24320,7 @@
         <v>80</v>
       </c>
       <c r="Z254" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24392,7 +24400,7 @@
         <v>35</v>
       </c>
       <c r="Z255" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24472,7 +24480,7 @@
         <v>35</v>
       </c>
       <c r="Z256" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="257" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24552,7 +24560,7 @@
         <v>63</v>
       </c>
       <c r="Z257" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="258" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -24632,7 +24640,7 @@
         <v>48</v>
       </c>
       <c r="Z258" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="259" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25032,7 +25040,7 @@
         <v>48</v>
       </c>
       <c r="Z263" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="264" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25112,7 +25120,7 @@
         <v>48</v>
       </c>
       <c r="Z264" s="4" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="265" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25352,7 +25360,7 @@
         <v>48</v>
       </c>
       <c r="Z267" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="268" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25432,7 +25440,7 @@
         <v>48</v>
       </c>
       <c r="Z268" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="269" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25672,7 +25680,7 @@
         <v>63</v>
       </c>
       <c r="Z271" s="4" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25752,7 +25760,7 @@
         <v>80</v>
       </c>
       <c r="Z272" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="273" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25912,7 +25920,7 @@
         <v>48</v>
       </c>
       <c r="Z274" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="275" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -25992,7 +26000,7 @@
         <v>48</v>
       </c>
       <c r="Z275" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="276" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -26152,7 +26160,7 @@
         <v>48</v>
       </c>
       <c r="Z277" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -26232,7 +26240,7 @@
         <v>63</v>
       </c>
       <c r="Z278" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="279" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -26312,7 +26320,7 @@
         <v>48</v>
       </c>
       <c r="Z279" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="280" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -26392,7 +26400,7 @@
         <v>35</v>
       </c>
       <c r="Z280" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="281" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -26952,7 +26960,7 @@
         <v>35</v>
       </c>
       <c r="Z287" s="4" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="288" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27112,7 +27120,7 @@
         <v>35</v>
       </c>
       <c r="Z289" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27192,7 +27200,7 @@
         <v>80</v>
       </c>
       <c r="Z290" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27272,7 +27280,7 @@
         <v>80</v>
       </c>
       <c r="Z291" s="4" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27432,7 +27440,7 @@
         <v>35</v>
       </c>
       <c r="Z293" s="4" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27512,7 +27520,7 @@
         <v>35</v>
       </c>
       <c r="Z294" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27592,7 +27600,7 @@
         <v>80</v>
       </c>
       <c r="Z295" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27748,7 +27756,7 @@
         <v>63</v>
       </c>
       <c r="Z297" s="4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -27858,7 +27866,7 @@
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z304" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="305" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27873,12 +27881,12 @@
     </row>
     <row r="307" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z307" s="4" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="308" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z308" s="4" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="309" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27888,7 +27896,7 @@
     </row>
     <row r="310" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z310" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="311" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/shiny_app/raw_data/responses_1.xlsx
+++ b/shiny_app/raw_data/responses_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottdetjen/Desktop/RProjects/Social_Connections_2024.2/shiny_app/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottdetjen/Desktop/RProjects/Social_Connections_2024(5)/shiny_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D42A9-14A7-5B49-9332-DA499E9C1024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA33C1B-73C7-114C-8273-8BD2779EBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2000" windowWidth="23460" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="960" windowWidth="25300" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8212" uniqueCount="1448">
   <si>
     <t>1. Have you taken a gap year?</t>
   </si>
@@ -3719,6 +3719,651 @@
   </si>
   <si>
     <t>Desmond Cudjoe</t>
+  </si>
+  <si>
+    <t>Anamaria Perez</t>
+  </si>
+  <si>
+    <t>Catherine Liang</t>
+  </si>
+  <si>
+    <t>Jaida Wilson</t>
+  </si>
+  <si>
+    <t>No one. </t>
+  </si>
+  <si>
+    <t>Abe Qasem</t>
+  </si>
+  <si>
+    <t>Omar Elbakly</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Nikki Prescott </t>
+  </si>
+  <si>
+    <t>Abdul Repon</t>
+  </si>
+  <si>
+    <t>Ricky Lam </t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Melissa Meng </t>
+  </si>
+  <si>
+    <t>Matt Fitch</t>
+  </si>
+  <si>
+    <t>Suchetas Bokil</t>
+  </si>
+  <si>
+    <t>Cam Dougherty</t>
+  </si>
+  <si>
+    <t>Simon Nunanyon</t>
+  </si>
+  <si>
+    <t>Inès Hynnett</t>
+  </si>
+  <si>
+    <t>Hana Wakamatsu</t>
+  </si>
+  <si>
+    <t>Aden Barton</t>
+  </si>
+  <si>
+    <t>Linda Lin</t>
+  </si>
+  <si>
+    <t>Classfinds</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Piper</t>
+  </si>
+  <si>
+    <t>Shola</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Ariana White</t>
+  </si>
+  <si>
+    <t>Olivia Cooper</t>
+  </si>
+  <si>
+    <t>Fiona Zimmerman </t>
+  </si>
+  <si>
+    <t>Not applicable </t>
+  </si>
+  <si>
+    <t>Nabin Poudel</t>
+  </si>
+  <si>
+    <t>Nirupama Roka</t>
+  </si>
+  <si>
+    <t>Dany Zapata Rincon</t>
+  </si>
+  <si>
+    <t>Aditya Wirawan</t>
+  </si>
+  <si>
+    <t>Melissa Chen</t>
+  </si>
+  <si>
+    <t>Elizabeth Ogolo </t>
+  </si>
+  <si>
+    <t>Grace Seifu </t>
+  </si>
+  <si>
+    <t>Jada Johnson </t>
+  </si>
+  <si>
+    <t>Jaeschel Acheampong </t>
+  </si>
+  <si>
+    <t>No idea </t>
+  </si>
+  <si>
+    <t>Ali Makani</t>
+  </si>
+  <si>
+    <t>Sameer Khan</t>
+  </si>
+  <si>
+    <t>Alexi Stavropoulos</t>
+  </si>
+  <si>
+    <t>Robert Escudero</t>
+  </si>
+  <si>
+    <t>Katerina Nastou</t>
+  </si>
+  <si>
+    <t>Ada Cruz</t>
+  </si>
+  <si>
+    <t>No idea</t>
+  </si>
+  <si>
+    <t>Sebastian Garcia</t>
+  </si>
+  <si>
+    <t>Roxanna Villagran-Mexicano</t>
+  </si>
+  <si>
+    <t>Kayla Huang </t>
+  </si>
+  <si>
+    <t>Arik Katz</t>
+  </si>
+  <si>
+    <t>On sports team</t>
+  </si>
+  <si>
+    <t>janet hernandez</t>
+  </si>
+  <si>
+    <t>Roxanna Villagras Mexicano</t>
+  </si>
+  <si>
+    <t>Sarah McDonald</t>
+  </si>
+  <si>
+    <t>tarina ahuja</t>
+  </si>
+  <si>
+    <t>Malaika Zaidi</t>
+  </si>
+  <si>
+    <t>Afiya Rahman</t>
+  </si>
+  <si>
+    <t>Ryan Swardstrom</t>
+  </si>
+  <si>
+    <t>Sophia Gilroy</t>
+  </si>
+  <si>
+    <t>Feven ( Grace ) Seifu</t>
+  </si>
+  <si>
+    <t>Caitlin Beirne</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Delaney Jones</t>
+  </si>
+  <si>
+    <t>Claire Duncan</t>
+  </si>
+  <si>
+    <t>Maryan Adan</t>
+  </si>
+  <si>
+    <t>Zhimei (Meimei) Xu</t>
+  </si>
+  <si>
+    <t>Aidan Tai</t>
+  </si>
+  <si>
+    <t>Elsie Halvorsen</t>
+  </si>
+  <si>
+    <t>Eva Dorr </t>
+  </si>
+  <si>
+    <t>Alexa Mark</t>
+  </si>
+  <si>
+    <t>Taruna Singh</t>
+  </si>
+  <si>
+    <t>Ari Hilibrand</t>
+  </si>
+  <si>
+    <t>Christopher Rivers</t>
+  </si>
+  <si>
+    <t>Maia Hollins-Kirk </t>
+  </si>
+  <si>
+    <t>Sasha Constandse</t>
+  </si>
+  <si>
+    <t>Teammate</t>
+  </si>
+  <si>
+    <t>Dhara Liyanage</t>
+  </si>
+  <si>
+    <t>Emi Cummings</t>
+  </si>
+  <si>
+    <t>Alexandra Kassinis</t>
+  </si>
+  <si>
+    <t>Matt Mauriello</t>
+  </si>
+  <si>
+    <t>Gabrielle McClellan</t>
+  </si>
+  <si>
+    <t>Caroline Allen </t>
+  </si>
+  <si>
+    <t>Zara Salem </t>
+  </si>
+  <si>
+    <t>Piper Cyterski </t>
+  </si>
+  <si>
+    <t>Alexi Stavropoulos </t>
+  </si>
+  <si>
+    <t>Alexa Mark </t>
+  </si>
+  <si>
+    <t>Manny Yepes </t>
+  </si>
+  <si>
+    <t>Social Media (groupme) but soon began talking on Zoom</t>
+  </si>
+  <si>
+    <t>Aly Tarmin</t>
+  </si>
+  <si>
+    <t>Nick marcenelle</t>
+  </si>
+  <si>
+    <t>Noah siraj</t>
+  </si>
+  <si>
+    <t>Ryan Kong</t>
+  </si>
+  <si>
+    <t>Michaiah Bell</t>
+  </si>
+  <si>
+    <t>Charlotte Moses</t>
+  </si>
+  <si>
+    <t>Caron Kim </t>
+  </si>
+  <si>
+    <t>Ty Isaksen </t>
+  </si>
+  <si>
+    <t>Penelope Alegria </t>
+  </si>
+  <si>
+    <t>Nico Fernandez </t>
+  </si>
+  <si>
+    <t>Owen O’Connor</t>
+  </si>
+  <si>
+    <t>Benjamin Harding</t>
+  </si>
+  <si>
+    <t>Azra Haseki</t>
+  </si>
+  <si>
+    <t>Ariana Vlad</t>
+  </si>
+  <si>
+    <t>Raymond Huang</t>
+  </si>
+  <si>
+    <t>Roxanna Villagran-Mexicano </t>
+  </si>
+  <si>
+    <t>Same advisor</t>
+  </si>
+  <si>
+    <t>idk</t>
+  </si>
+  <si>
+    <t>Jackelyn Baldwin</t>
+  </si>
+  <si>
+    <t>Hanna Johnson</t>
+  </si>
+  <si>
+    <t>Alan Zhang</t>
+  </si>
+  <si>
+    <t>Autumn Dorsey</t>
+  </si>
+  <si>
+    <t>Terry Emeigh</t>
+  </si>
+  <si>
+    <t>Alyssa belle</t>
+  </si>
+  <si>
+    <t>Libby Wu</t>
+  </si>
+  <si>
+    <t>Liv Kierstead </t>
+  </si>
+  <si>
+    <t>Lindsey Lawson</t>
+  </si>
+  <si>
+    <t>Luca D'Amico-Wong</t>
+  </si>
+  <si>
+    <t>Jeffrey Kwan</t>
+  </si>
+  <si>
+    <t>Marbella Marlo </t>
+  </si>
+  <si>
+    <t>Carli Cooperstein </t>
+  </si>
+  <si>
+    <t>Lucas Gazianis</t>
+  </si>
+  <si>
+    <t>Madison Pankey </t>
+  </si>
+  <si>
+    <t>Gogo Taubman </t>
+  </si>
+  <si>
+    <t>Sarah Girma</t>
+  </si>
+  <si>
+    <t>Ryan Durano</t>
+  </si>
+  <si>
+    <t>octavia atyagi</t>
+  </si>
+  <si>
+    <t>Prazul Wokhlu</t>
+  </si>
+  <si>
+    <t>Onyekachi Agwu </t>
+  </si>
+  <si>
+    <t>Jesse Hernandez</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Matthew Cabot</t>
+  </si>
+  <si>
+    <t>Jacob Rizy</t>
+  </si>
+  <si>
+    <t>Charles Neuhauser </t>
+  </si>
+  <si>
+    <t>Nia Burch</t>
+  </si>
+  <si>
+    <t>Sophia Gustafson</t>
+  </si>
+  <si>
+    <t>Emma Zuckerman</t>
+  </si>
+  <si>
+    <t>Unsure?</t>
+  </si>
+  <si>
+    <t>Angelica Carillo</t>
+  </si>
+  <si>
+    <t>Aspen abner</t>
+  </si>
+  <si>
+    <t>Cindy Phan </t>
+  </si>
+  <si>
+    <t>Roxanna Mexicano</t>
+  </si>
+  <si>
+    <t>Jess Leff </t>
+  </si>
+  <si>
+    <t>Sam DePaolo </t>
+  </si>
+  <si>
+    <t>Sophia Zhang</t>
+  </si>
+  <si>
+    <t>no clue</t>
+  </si>
+  <si>
+    <t>Nick GU</t>
+  </si>
+  <si>
+    <t>Helia Murdock</t>
+  </si>
+  <si>
+    <t>Anika Bagaria</t>
+  </si>
+  <si>
+    <t>Harry Shams</t>
+  </si>
+  <si>
+    <t>Jaya Nayr</t>
+  </si>
+  <si>
+    <t>Lisa UC girl</t>
+  </si>
+  <si>
+    <t>Azwayla Taylor</t>
+  </si>
+  <si>
+    <t>Adrian Pedroza </t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>Larson Avery</t>
+  </si>
+  <si>
+    <t>Calvin Beighle</t>
+  </si>
+  <si>
+    <t>Lety Ojeda </t>
+  </si>
+  <si>
+    <t>Bryce Reynolds</t>
+  </si>
+  <si>
+    <t>Patrick Thornton</t>
+  </si>
+  <si>
+    <t>I really don't know that many people, no idea</t>
+  </si>
+  <si>
+    <t>Isabel Brown</t>
+  </si>
+  <si>
+    <t>Johnathan Buchanan</t>
+  </si>
+  <si>
+    <t>Rubaiya Emran</t>
+  </si>
+  <si>
+    <t>Dani Saforo</t>
+  </si>
+  <si>
+    <t>Dorina K.</t>
+  </si>
+  <si>
+    <t>Aissata (idk last name)</t>
+  </si>
+  <si>
+    <t>Sandra W.</t>
+  </si>
+  <si>
+    <t>Alfonso Godinez Aguilar</t>
+  </si>
+  <si>
+    <t>Harvard SPARK</t>
+  </si>
+  <si>
+    <t>Khin Hla Oo</t>
+  </si>
+  <si>
+    <t>James Ines</t>
+  </si>
+  <si>
+    <t>Jesus Gomez</t>
+  </si>
+  <si>
+    <t>David Huang</t>
+  </si>
+  <si>
+    <t>Kerry Daley</t>
+  </si>
+  <si>
+    <t>Emmett de Kanter </t>
+  </si>
+  <si>
+    <t>Aaron Eudaimon</t>
+  </si>
+  <si>
+    <t>Gus Richards</t>
+  </si>
+  <si>
+    <t>Ailie Johnson (original roomate) </t>
+  </si>
+  <si>
+    <t>Mary Pankowski (met through Ailie)</t>
+  </si>
+  <si>
+    <t>Katherine Paine (ROTC together)</t>
+  </si>
+  <si>
+    <t>Clair Wiggs (met at Widener steps)</t>
+  </si>
+  <si>
+    <t>Asian, Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Was my assigned group partner during an econ group pset</t>
+  </si>
+  <si>
+    <t>Alejandro Guttieriez</t>
+  </si>
+  <si>
+    <t>Off-campus in the Cambridge area</t>
+  </si>
+  <si>
+    <t>Zoie Frier</t>
+  </si>
+  <si>
+    <t>Annora Lee </t>
+  </si>
+  <si>
+    <t>n.a</t>
+  </si>
+  <si>
+    <t>Will Nickols</t>
+  </si>
+  <si>
+    <t>Gordon Ebanks </t>
+  </si>
+  <si>
+    <t>Roxanna Villagrán-Mexicano</t>
+  </si>
+  <si>
+    <t>Paulina Harasimowicz</t>
+  </si>
+  <si>
+    <t>Grace Coolidge</t>
+  </si>
+  <si>
+    <t>Linden Schrage </t>
+  </si>
+  <si>
+    <t>Alexi Stavropolous</t>
+  </si>
+  <si>
+    <t>atlanta harvard meetup</t>
+  </si>
+  <si>
+    <t>no idea</t>
+  </si>
+  <si>
+    <t>Will Troutman</t>
+  </si>
+  <si>
+    <t>Christopher Snopeck</t>
+  </si>
+  <si>
+    <t>Jack Brister</t>
+  </si>
+  <si>
+    <t>Derick Vastola</t>
+  </si>
+  <si>
+    <t>Yejin Kim</t>
+  </si>
+  <si>
+    <t>Ruth Jaensubhakij</t>
+  </si>
+  <si>
+    <t>Alexi Stav</t>
+  </si>
+  <si>
+    <t>Jadyn Matthews</t>
+  </si>
+  <si>
+    <t>I have no idea</t>
+  </si>
+  <si>
+    <t>Jolly Roo</t>
+  </si>
+  <si>
+    <t>Yab Demise</t>
+  </si>
+  <si>
+    <t>Tiffany Kalu</t>
+  </si>
+  <si>
+    <t>Alicetonia Nwamah</t>
+  </si>
+  <si>
+    <t>Ananda Birgundi</t>
+  </si>
+  <si>
+    <t>Sarah Abraham</t>
+  </si>
+  <si>
+    <t>Onyeka Agwu</t>
   </si>
 </sst>
 </file>
@@ -3997,10 +4642,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z409"/>
+  <dimension ref="A1:AF499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V159" sqref="V159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y402" sqref="Y402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27043,7 +27688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>19</v>
       </c>
@@ -27123,7 +27768,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>19</v>
       </c>
@@ -27203,7 +27848,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>19</v>
       </c>
@@ -27283,7 +27928,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>19</v>
       </c>
@@ -27363,7 +28008,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>19</v>
       </c>
@@ -27443,7 +28088,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>19</v>
       </c>
@@ -27523,7 +28168,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>19</v>
       </c>
@@ -27603,7 +28248,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>19</v>
       </c>
@@ -27683,7 +28328,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>19</v>
       </c>
@@ -27759,7 +28404,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>19</v>
       </c>
@@ -27839,362 +28484,8781 @@
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H299" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K299" s="4">
+        <v>5</v>
+      </c>
+      <c r="L299" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M299" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N299" s="4">
+        <v>5</v>
+      </c>
+      <c r="O299" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="P299" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q299" s="4">
+        <v>4</v>
+      </c>
+      <c r="R299" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S299" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T299" s="4">
+        <v>4</v>
+      </c>
+      <c r="U299" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V299" s="4">
+        <v>10</v>
+      </c>
+      <c r="W299" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X299" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Y299" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="Z299" s="4" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA299" s="4"/>
+      <c r="AB299" s="4"/>
+      <c r="AC299" s="4"/>
+      <c r="AF299" s="4"/>
+    </row>
+    <row r="300" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H300" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I300" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K300" s="4">
+        <v>4</v>
+      </c>
+      <c r="L300" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M300" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N300" s="4">
+        <v>4</v>
+      </c>
+      <c r="O300" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P300" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q300" s="4">
+        <v>3</v>
+      </c>
+      <c r="R300" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S300" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T300" s="4">
+        <v>3</v>
+      </c>
+      <c r="U300" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V300" s="4">
+        <v>3</v>
+      </c>
+      <c r="W300" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X300" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Y300" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="Z300" s="4" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA300" s="4"/>
+      <c r="AB300" s="4"/>
+      <c r="AC300" s="4"/>
+      <c r="AF300" s="4"/>
+    </row>
+    <row r="301" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K301" s="4">
+        <v>5</v>
+      </c>
+      <c r="L301" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="M301" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N301" s="4">
+        <v>4</v>
+      </c>
+      <c r="O301" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P301" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q301" s="4">
+        <v>4</v>
+      </c>
+      <c r="R301" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="S301" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T301" s="4">
+        <v>3</v>
+      </c>
+      <c r="U301" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V301" s="4">
+        <v>4</v>
+      </c>
+      <c r="W301" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X301" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Y301" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="Z301" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA301" s="4"/>
+      <c r="AB301" s="4"/>
+      <c r="AC301" s="4"/>
+      <c r="AF301" s="4"/>
+    </row>
+    <row r="302" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H302" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K302" s="4">
+        <v>4</v>
+      </c>
+      <c r="L302" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M302" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N302" s="4">
+        <v>4</v>
+      </c>
+      <c r="O302" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="P302" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q302" s="4">
+        <v>4</v>
+      </c>
+      <c r="R302" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="S302" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T302" s="4">
+        <v>4</v>
+      </c>
+      <c r="U302" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V302" s="4">
+        <v>0</v>
+      </c>
+      <c r="W302" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X302" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y302" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="Z302" s="4" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA302" s="4"/>
+      <c r="AB302" s="4"/>
+      <c r="AC302" s="4"/>
+      <c r="AF302" s="4"/>
+    </row>
+    <row r="303" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H303" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K303" s="4">
+        <v>4</v>
+      </c>
+      <c r="L303" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M303" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N303" s="4">
+        <v>1</v>
+      </c>
+      <c r="O303" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P303" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q303" s="4">
+        <v>2</v>
+      </c>
+      <c r="R303" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="S303" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T303" s="4">
+        <v>1</v>
+      </c>
+      <c r="U303" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V303" s="4">
+        <v>0</v>
+      </c>
+      <c r="W303" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X303" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Y303" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Z303" s="4" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA303" s="4"/>
+      <c r="AB303" s="4"/>
+      <c r="AC303" s="4"/>
+      <c r="AF303" s="4"/>
+    </row>
+    <row r="304" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H304" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I304" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K304" s="4">
+        <v>3</v>
+      </c>
+      <c r="L304" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M304" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N304" s="4">
+        <v>3</v>
+      </c>
+      <c r="O304" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="P304" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q304" s="4">
+        <v>2</v>
+      </c>
+      <c r="R304" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="S304" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T304" s="4">
+        <v>2</v>
+      </c>
+      <c r="U304" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V304" s="4">
+        <v>10</v>
+      </c>
+      <c r="W304" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X304" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y304" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Z304" s="4" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="305" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA304" s="4"/>
+      <c r="AB304" s="4"/>
+      <c r="AC304" s="4"/>
+      <c r="AF304" s="4"/>
+    </row>
+    <row r="305" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I305" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K305" s="4">
+        <v>4</v>
+      </c>
+      <c r="L305" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="M305" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N305" s="4">
+        <v>4</v>
+      </c>
+      <c r="O305" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P305" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q305" s="4">
+        <v>3</v>
+      </c>
+      <c r="R305" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="S305" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T305" s="4">
+        <v>3</v>
+      </c>
+      <c r="U305" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V305" s="4">
+        <v>0</v>
+      </c>
+      <c r="W305" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X305" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y305" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="Z305" s="4" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="306" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA305" s="4"/>
+      <c r="AB305" s="4"/>
+      <c r="AC305" s="4"/>
+      <c r="AF305" s="4"/>
+    </row>
+    <row r="306" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I306" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K306" s="4">
+        <v>5</v>
+      </c>
+      <c r="L306" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="M306" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N306" s="4">
+        <v>5</v>
+      </c>
+      <c r="O306" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="P306" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q306" s="4">
+        <v>5</v>
+      </c>
+      <c r="R306" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="S306" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T306" s="4">
+        <v>5</v>
+      </c>
+      <c r="U306" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V306" s="4">
+        <v>2</v>
+      </c>
+      <c r="W306" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X306" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y306" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Z306" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="307" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA306" s="4"/>
+      <c r="AB306" s="4"/>
+      <c r="AC306" s="4"/>
+      <c r="AF306" s="4"/>
+    </row>
+    <row r="307" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H307" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K307" s="4">
+        <v>4</v>
+      </c>
+      <c r="L307" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M307" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N307" s="4">
+        <v>2</v>
+      </c>
+      <c r="O307" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P307" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q307" s="4">
+        <v>3</v>
+      </c>
+      <c r="R307" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S307" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T307" s="4">
+        <v>3</v>
+      </c>
+      <c r="U307" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V307" s="4">
+        <v>2</v>
+      </c>
+      <c r="W307" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X307" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y307" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="Z307" s="4" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="308" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA307" s="4"/>
+      <c r="AB307" s="4"/>
+      <c r="AC307" s="4"/>
+      <c r="AF307" s="4"/>
+    </row>
+    <row r="308" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J308" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K308" s="4">
+        <v>3</v>
+      </c>
+      <c r="L308" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="M308" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N308" s="4">
+        <v>2</v>
+      </c>
+      <c r="O308" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P308" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q308" s="4">
+        <v>2</v>
+      </c>
+      <c r="R308" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S308" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T308" s="4">
+        <v>2</v>
+      </c>
+      <c r="U308" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V308" s="4">
+        <v>0</v>
+      </c>
+      <c r="W308" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X308" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Y308" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Z308" s="4" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="309" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA308" s="4"/>
+      <c r="AB308" s="4"/>
+      <c r="AC308" s="4"/>
+      <c r="AF308" s="4"/>
+    </row>
+    <row r="309" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J309" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K309" s="4">
+        <v>3</v>
+      </c>
+      <c r="L309" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M309" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N309" s="4">
+        <v>4</v>
+      </c>
+      <c r="O309" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="P309" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q309" s="4">
+        <v>3</v>
+      </c>
+      <c r="R309" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S309" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T309" s="4">
+        <v>3</v>
+      </c>
+      <c r="U309" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V309" s="4">
+        <v>2</v>
+      </c>
+      <c r="W309" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X309" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Y309" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="Z309" s="4" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="310" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA309" s="4"/>
+      <c r="AB309" s="4"/>
+      <c r="AC309" s="4"/>
+      <c r="AF309" s="4"/>
+    </row>
+    <row r="310" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H310" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J310" s="4"/>
+      <c r="K310" s="4">
+        <v>1</v>
+      </c>
+      <c r="L310" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M310" s="4"/>
+      <c r="N310" s="4">
+        <v>1</v>
+      </c>
+      <c r="O310" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P310" s="4"/>
+      <c r="Q310" s="4">
+        <v>1</v>
+      </c>
+      <c r="R310" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="S310" s="4"/>
+      <c r="T310" s="4">
+        <v>1</v>
+      </c>
+      <c r="U310" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="V310" s="4">
+        <v>0</v>
+      </c>
+      <c r="W310" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X310" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y310" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Z310" s="4" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="311" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z311" s="4"/>
-    </row>
-    <row r="312" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z312" s="4"/>
-    </row>
-    <row r="313" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z313" s="4"/>
-    </row>
-    <row r="314" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z314" s="4"/>
-    </row>
-    <row r="315" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z315" s="4"/>
-    </row>
-    <row r="316" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z316" s="4"/>
-    </row>
-    <row r="317" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z317" s="4"/>
-    </row>
-    <row r="318" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z318" s="4"/>
-    </row>
-    <row r="319" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z319" s="4"/>
-    </row>
-    <row r="320" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z320" s="4"/>
-    </row>
-    <row r="321" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z321" s="4"/>
-    </row>
-    <row r="322" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z322" s="4"/>
-    </row>
-    <row r="323" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z323" s="4"/>
-    </row>
-    <row r="324" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z324" s="4"/>
-    </row>
-    <row r="325" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z325" s="4"/>
-    </row>
-    <row r="326" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z326" s="4"/>
-    </row>
-    <row r="327" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z327" s="4"/>
-    </row>
-    <row r="328" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z328" s="4"/>
-    </row>
-    <row r="329" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z329" s="4"/>
-    </row>
-    <row r="330" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z330" s="4"/>
-    </row>
-    <row r="331" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z331" s="4"/>
-    </row>
-    <row r="332" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z332" s="4"/>
-    </row>
-    <row r="333" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z333" s="4"/>
-    </row>
-    <row r="334" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z334" s="4"/>
-    </row>
-    <row r="335" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z335" s="4"/>
-    </row>
-    <row r="336" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z336" s="4"/>
-    </row>
-    <row r="337" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z337" s="4"/>
-    </row>
-    <row r="338" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z338" s="4"/>
-    </row>
-    <row r="339" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z339" s="4"/>
-    </row>
-    <row r="340" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z340" s="4"/>
-    </row>
-    <row r="341" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z341" s="4"/>
-    </row>
-    <row r="342" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z342" s="4"/>
-    </row>
-    <row r="343" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z343" s="4"/>
-    </row>
-    <row r="344" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z344" s="4"/>
-    </row>
-    <row r="345" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z345" s="4"/>
-    </row>
-    <row r="346" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z346" s="4"/>
-    </row>
-    <row r="347" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z347" s="4"/>
-    </row>
-    <row r="348" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z348" s="4"/>
-    </row>
-    <row r="349" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z349" s="4"/>
-    </row>
-    <row r="350" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z350" s="4"/>
-    </row>
-    <row r="351" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z351" s="4"/>
-    </row>
-    <row r="352" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z352" s="4"/>
-    </row>
-    <row r="353" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z353" s="4"/>
-    </row>
-    <row r="354" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z354" s="4"/>
-    </row>
-    <row r="355" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z355" s="4"/>
-    </row>
-    <row r="356" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z356" s="4"/>
-    </row>
-    <row r="357" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z357" s="4"/>
-    </row>
-    <row r="358" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z358" s="4"/>
-    </row>
-    <row r="359" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z359" s="4"/>
-    </row>
-    <row r="360" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z360" s="4"/>
-    </row>
-    <row r="361" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z361" s="4"/>
-    </row>
-    <row r="362" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z362" s="4"/>
-    </row>
-    <row r="363" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z363" s="4"/>
-    </row>
-    <row r="364" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z364" s="4"/>
-    </row>
-    <row r="365" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z365" s="4"/>
-    </row>
-    <row r="366" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z366" s="4"/>
-    </row>
-    <row r="367" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z367" s="4"/>
-    </row>
-    <row r="368" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z368" s="4"/>
-    </row>
-    <row r="369" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z369" s="4"/>
-    </row>
-    <row r="370" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z370" s="4"/>
-    </row>
-    <row r="371" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z371" s="4"/>
-    </row>
-    <row r="372" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z372" s="4"/>
-    </row>
-    <row r="373" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z373" s="4"/>
-    </row>
-    <row r="374" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z374" s="4"/>
-    </row>
-    <row r="375" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z375" s="4"/>
-    </row>
-    <row r="376" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z376" s="4"/>
-    </row>
-    <row r="377" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z377" s="4"/>
-    </row>
-    <row r="378" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z378" s="4"/>
-    </row>
-    <row r="379" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z379" s="4"/>
-    </row>
-    <row r="380" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z380" s="4"/>
-    </row>
-    <row r="381" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z381" s="4"/>
-    </row>
-    <row r="382" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z382" s="4"/>
-    </row>
-    <row r="383" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z383" s="4"/>
-    </row>
-    <row r="384" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z384" s="4"/>
-    </row>
-    <row r="385" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z385" s="4"/>
-    </row>
-    <row r="386" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z386" s="4"/>
-    </row>
-    <row r="387" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z387" s="4"/>
-    </row>
-    <row r="388" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z388" s="4"/>
-    </row>
-    <row r="389" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z389" s="4"/>
-    </row>
-    <row r="390" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z390" s="4"/>
-    </row>
-    <row r="391" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Z391" s="4"/>
-    </row>
-    <row r="392" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA310" s="4"/>
+      <c r="AB310" s="4"/>
+      <c r="AC310" s="4"/>
+      <c r="AF310" s="4"/>
+    </row>
+    <row r="311" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K311" s="4">
+        <v>4</v>
+      </c>
+      <c r="L311" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M311" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N311" s="4">
+        <v>3</v>
+      </c>
+      <c r="O311" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P311" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q311" s="4">
+        <v>1</v>
+      </c>
+      <c r="R311" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="S311" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T311" s="4">
+        <v>1</v>
+      </c>
+      <c r="U311" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V311" s="4">
+        <v>0</v>
+      </c>
+      <c r="W311" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X311" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Y311" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z311" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA311" s="4"/>
+      <c r="AB311" s="4"/>
+      <c r="AC311" s="4"/>
+      <c r="AF311" s="4"/>
+    </row>
+    <row r="312" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H312" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K312" s="4">
+        <v>4</v>
+      </c>
+      <c r="L312" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M312" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N312" s="4">
+        <v>3</v>
+      </c>
+      <c r="O312" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P312" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q312" s="4">
+        <v>4</v>
+      </c>
+      <c r="R312" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="S312" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T312" s="4">
+        <v>3</v>
+      </c>
+      <c r="U312" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V312" s="4">
+        <v>5</v>
+      </c>
+      <c r="W312" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X312" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Y312" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z312" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AA312" s="4"/>
+      <c r="AB312" s="4"/>
+      <c r="AC312" s="4"/>
+      <c r="AF312" s="4"/>
+    </row>
+    <row r="313" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H313" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K313" s="4">
+        <v>5</v>
+      </c>
+      <c r="L313" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M313" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N313" s="4">
+        <v>4</v>
+      </c>
+      <c r="O313" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P313" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q313" s="4">
+        <v>5</v>
+      </c>
+      <c r="R313" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="S313" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T313" s="4">
+        <v>5</v>
+      </c>
+      <c r="U313" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V313" s="4">
+        <v>10</v>
+      </c>
+      <c r="W313" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X313" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y313" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z313" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="AA313" s="4"/>
+      <c r="AB313" s="4"/>
+      <c r="AC313" s="4"/>
+      <c r="AF313" s="4"/>
+    </row>
+    <row r="314" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H314" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K314" s="4">
+        <v>5</v>
+      </c>
+      <c r="L314" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M314" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N314" s="4">
+        <v>5</v>
+      </c>
+      <c r="O314" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="P314" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q314" s="4">
+        <v>5</v>
+      </c>
+      <c r="R314" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="S314" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T314" s="4">
+        <v>5</v>
+      </c>
+      <c r="U314" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V314" s="4">
+        <v>8</v>
+      </c>
+      <c r="W314" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X314" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y314" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z314" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AA314" s="4"/>
+      <c r="AB314" s="4"/>
+      <c r="AC314" s="4"/>
+      <c r="AF314" s="4"/>
+    </row>
+    <row r="315" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I315" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="J315" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K315" s="4">
+        <v>4</v>
+      </c>
+      <c r="L315" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="M315" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N315" s="4">
+        <v>3</v>
+      </c>
+      <c r="O315" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P315" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q315" s="4">
+        <v>3</v>
+      </c>
+      <c r="R315" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="S315" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T315" s="4">
+        <v>3</v>
+      </c>
+      <c r="U315" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V315" s="4">
+        <v>0</v>
+      </c>
+      <c r="W315" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X315" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Y315" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z315" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA315" s="4"/>
+      <c r="AB315" s="4"/>
+      <c r="AC315" s="4"/>
+      <c r="AF315" s="4"/>
+    </row>
+    <row r="316" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H316" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K316" s="4">
+        <v>5</v>
+      </c>
+      <c r="L316" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="M316" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N316" s="4">
+        <v>4</v>
+      </c>
+      <c r="O316" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P316" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q316" s="4">
+        <v>3</v>
+      </c>
+      <c r="R316" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S316" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T316" s="4">
+        <v>2</v>
+      </c>
+      <c r="U316" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V316" s="4">
+        <v>14</v>
+      </c>
+      <c r="W316" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X316" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Y316" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z316" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AA316" s="4"/>
+      <c r="AB316" s="4"/>
+      <c r="AC316" s="4"/>
+      <c r="AF316" s="4"/>
+    </row>
+    <row r="317" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H317" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J317" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K317" s="4">
+        <v>5</v>
+      </c>
+      <c r="L317" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="M317" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N317" s="4">
+        <v>4</v>
+      </c>
+      <c r="O317" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="P317" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q317" s="4">
+        <v>4</v>
+      </c>
+      <c r="R317" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="S317" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T317" s="4">
+        <v>4</v>
+      </c>
+      <c r="U317" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V317" s="4">
+        <v>15</v>
+      </c>
+      <c r="W317" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X317" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Y317" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z317" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="AA317" s="4"/>
+      <c r="AB317" s="4"/>
+      <c r="AC317" s="4"/>
+      <c r="AF317" s="4"/>
+    </row>
+    <row r="318" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H318" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I318" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J318" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K318" s="4">
+        <v>5</v>
+      </c>
+      <c r="L318" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M318" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N318" s="4">
+        <v>4</v>
+      </c>
+      <c r="O318" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P318" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q318" s="4">
+        <v>4</v>
+      </c>
+      <c r="R318" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="S318" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T318" s="4">
+        <v>3</v>
+      </c>
+      <c r="U318" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V318" s="4">
+        <v>10</v>
+      </c>
+      <c r="W318" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X318" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Y318" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z318" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AA318" s="4"/>
+      <c r="AB318" s="4"/>
+      <c r="AC318" s="4"/>
+      <c r="AF318" s="4"/>
+    </row>
+    <row r="319" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H319" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I319" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K319" s="4">
+        <v>4</v>
+      </c>
+      <c r="L319" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M319" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N319" s="4">
+        <v>4</v>
+      </c>
+      <c r="O319" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P319" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q319" s="4">
+        <v>5</v>
+      </c>
+      <c r="R319" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="S319" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T319" s="4">
+        <v>5</v>
+      </c>
+      <c r="U319" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V319" s="4">
+        <v>5</v>
+      </c>
+      <c r="W319" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X319" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y319" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z319" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="AA319" s="4"/>
+      <c r="AB319" s="4"/>
+      <c r="AC319" s="4"/>
+      <c r="AF319" s="4"/>
+    </row>
+    <row r="320" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H320" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I320" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K320" s="4">
+        <v>5</v>
+      </c>
+      <c r="L320" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M320" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N320" s="4">
+        <v>5</v>
+      </c>
+      <c r="O320" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="P320" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q320" s="4">
+        <v>3</v>
+      </c>
+      <c r="R320" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="S320" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T320" s="4">
+        <v>3</v>
+      </c>
+      <c r="U320" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V320" s="4">
+        <v>10</v>
+      </c>
+      <c r="W320" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X320" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y320" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z320" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA320" s="4"/>
+      <c r="AB320" s="4"/>
+      <c r="AC320" s="4"/>
+      <c r="AF320" s="4"/>
+    </row>
+    <row r="321" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H321" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I321" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K321" s="4">
+        <v>4</v>
+      </c>
+      <c r="L321" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="M321" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N321" s="4">
+        <v>4</v>
+      </c>
+      <c r="O321" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="P321" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q321" s="4">
+        <v>4</v>
+      </c>
+      <c r="R321" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="S321" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T321" s="4">
+        <v>3</v>
+      </c>
+      <c r="U321" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V321" s="4">
+        <v>7</v>
+      </c>
+      <c r="W321" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X321" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Y321" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z321" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA321" s="4"/>
+      <c r="AB321" s="4"/>
+      <c r="AC321" s="4"/>
+      <c r="AF321" s="4"/>
+    </row>
+    <row r="322" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H322" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I322" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K322" s="4">
+        <v>4</v>
+      </c>
+      <c r="L322" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M322" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N322" s="4">
+        <v>4</v>
+      </c>
+      <c r="O322" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="P322" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q322" s="4">
+        <v>3</v>
+      </c>
+      <c r="R322" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="S322" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T322" s="4">
+        <v>4</v>
+      </c>
+      <c r="U322" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V322" s="4">
+        <v>1</v>
+      </c>
+      <c r="W322" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X322" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y322" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z322" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA322" s="4"/>
+      <c r="AB322" s="4"/>
+      <c r="AC322" s="4"/>
+      <c r="AF322" s="4"/>
+    </row>
+    <row r="323" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H323" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I323" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K323" s="4">
+        <v>5</v>
+      </c>
+      <c r="L323" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="M323" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N323" s="4">
+        <v>3</v>
+      </c>
+      <c r="O323" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="P323" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q323" s="4">
+        <v>2</v>
+      </c>
+      <c r="R323" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S323" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T323" s="4">
+        <v>3</v>
+      </c>
+      <c r="U323" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V323" s="4">
+        <v>20</v>
+      </c>
+      <c r="W323" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X323" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y323" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z323" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA323" s="4"/>
+      <c r="AB323" s="4"/>
+      <c r="AC323" s="4"/>
+      <c r="AF323" s="4"/>
+    </row>
+    <row r="324" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H324" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K324" s="4">
+        <v>5</v>
+      </c>
+      <c r="L324" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="M324" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N324" s="4">
+        <v>5</v>
+      </c>
+      <c r="O324" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="P324" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q324" s="4">
+        <v>4</v>
+      </c>
+      <c r="R324" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S324" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T324" s="4">
+        <v>4</v>
+      </c>
+      <c r="U324" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V324" s="4">
+        <v>4</v>
+      </c>
+      <c r="W324" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X324" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y324" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z324" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AA324" s="4"/>
+      <c r="AB324" s="4"/>
+      <c r="AC324" s="4"/>
+      <c r="AF324" s="4"/>
+    </row>
+    <row r="325" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H325" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I325" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K325" s="4">
+        <v>5</v>
+      </c>
+      <c r="L325" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M325" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N325" s="4">
+        <v>5</v>
+      </c>
+      <c r="O325" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P325" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q325" s="4">
+        <v>5</v>
+      </c>
+      <c r="R325" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S325" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T325" s="4">
+        <v>4</v>
+      </c>
+      <c r="U325" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V325" s="4">
+        <v>15</v>
+      </c>
+      <c r="W325" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X325" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y325" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z325" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA325" s="4"/>
+      <c r="AB325" s="4"/>
+      <c r="AC325" s="4"/>
+      <c r="AF325" s="4"/>
+    </row>
+    <row r="326" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H326" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K326" s="4">
+        <v>4</v>
+      </c>
+      <c r="L326" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="M326" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N326" s="4">
+        <v>3</v>
+      </c>
+      <c r="O326" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="P326" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q326" s="4">
+        <v>3</v>
+      </c>
+      <c r="R326" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="S326" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T326" s="4">
+        <v>3</v>
+      </c>
+      <c r="U326" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V326" s="4">
+        <v>0</v>
+      </c>
+      <c r="W326" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X326" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y326" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z326" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA326" s="4"/>
+      <c r="AB326" s="4"/>
+      <c r="AC326" s="4"/>
+      <c r="AF326" s="4"/>
+    </row>
+    <row r="327" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I327" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K327" s="4">
+        <v>5</v>
+      </c>
+      <c r="L327" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M327" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N327" s="4">
+        <v>4</v>
+      </c>
+      <c r="O327" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="P327" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Q327" s="4">
+        <v>4</v>
+      </c>
+      <c r="R327" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="S327" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="T327" s="4">
+        <v>4</v>
+      </c>
+      <c r="U327" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V327" s="4">
+        <v>0</v>
+      </c>
+      <c r="W327" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X327" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y327" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z327" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AA327" s="4"/>
+      <c r="AB327" s="4"/>
+      <c r="AC327" s="4"/>
+      <c r="AF327" s="4"/>
+    </row>
+    <row r="328" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H328" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I328" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K328" s="4">
+        <v>5</v>
+      </c>
+      <c r="L328" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M328" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N328" s="4">
+        <v>4</v>
+      </c>
+      <c r="O328" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P328" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q328" s="4">
+        <v>4</v>
+      </c>
+      <c r="R328" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="S328" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T328" s="4">
+        <v>4</v>
+      </c>
+      <c r="U328" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V328" s="4">
+        <v>1</v>
+      </c>
+      <c r="W328" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X328" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y328" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z328" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AA328" s="4"/>
+      <c r="AB328" s="4"/>
+      <c r="AC328" s="4"/>
+      <c r="AF328" s="4"/>
+    </row>
+    <row r="329" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K329" s="4">
+        <v>4</v>
+      </c>
+      <c r="L329" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M329" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N329" s="4">
+        <v>4</v>
+      </c>
+      <c r="O329" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="P329" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q329" s="4">
+        <v>4</v>
+      </c>
+      <c r="R329" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="S329" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T329" s="4">
+        <v>3</v>
+      </c>
+      <c r="U329" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V329" s="4">
+        <v>2</v>
+      </c>
+      <c r="W329" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X329" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Y329" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z329" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AA329" s="4"/>
+      <c r="AB329" s="4"/>
+      <c r="AC329" s="4"/>
+      <c r="AF329" s="4"/>
+    </row>
+    <row r="330" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H330" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K330" s="4">
+        <v>5</v>
+      </c>
+      <c r="L330" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M330" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="N330" s="4">
+        <v>4</v>
+      </c>
+      <c r="O330" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="P330" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q330" s="4">
+        <v>4</v>
+      </c>
+      <c r="R330" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="S330" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T330" s="4">
+        <v>3</v>
+      </c>
+      <c r="U330" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V330" s="4">
+        <v>5</v>
+      </c>
+      <c r="W330" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X330" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y330" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z330" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AA330" s="4"/>
+      <c r="AB330" s="4"/>
+      <c r="AC330" s="4"/>
+      <c r="AF330" s="4"/>
+    </row>
+    <row r="331" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K331" s="4">
+        <v>4</v>
+      </c>
+      <c r="L331" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M331" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N331" s="4">
+        <v>4</v>
+      </c>
+      <c r="O331" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="P331" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q331" s="4">
+        <v>4</v>
+      </c>
+      <c r="R331" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="S331" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T331" s="4">
+        <v>4</v>
+      </c>
+      <c r="U331" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V331" s="4">
+        <v>1</v>
+      </c>
+      <c r="W331" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X331" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Y331" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z331" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA331" s="4"/>
+      <c r="AB331" s="4"/>
+      <c r="AC331" s="4"/>
+      <c r="AF331" s="4"/>
+    </row>
+    <row r="332" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K332" s="4">
+        <v>3</v>
+      </c>
+      <c r="L332" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="M332" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N332" s="4">
+        <v>3</v>
+      </c>
+      <c r="O332" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="P332" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q332" s="4">
+        <v>4</v>
+      </c>
+      <c r="R332" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S332" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T332" s="4">
+        <v>3</v>
+      </c>
+      <c r="U332" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V332" s="4">
+        <v>3</v>
+      </c>
+      <c r="W332" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X332" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y332" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z332" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA332" s="4"/>
+      <c r="AB332" s="4"/>
+      <c r="AC332" s="4"/>
+      <c r="AF332" s="4"/>
+    </row>
+    <row r="333" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H333" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K333" s="4">
+        <v>5</v>
+      </c>
+      <c r="L333" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M333" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N333" s="4">
+        <v>4</v>
+      </c>
+      <c r="O333" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P333" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q333" s="4">
+        <v>3</v>
+      </c>
+      <c r="R333" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S333" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T333" s="4">
+        <v>3</v>
+      </c>
+      <c r="U333" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V333" s="4">
+        <v>3</v>
+      </c>
+      <c r="W333" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X333" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Y333" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z333" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA333" s="4"/>
+      <c r="AB333" s="4"/>
+      <c r="AC333" s="4"/>
+      <c r="AF333" s="4"/>
+    </row>
+    <row r="334" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H334" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K334" s="4">
+        <v>3</v>
+      </c>
+      <c r="L334" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="M334" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N334" s="4">
+        <v>3</v>
+      </c>
+      <c r="O334" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="P334" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q334" s="4">
+        <v>3</v>
+      </c>
+      <c r="R334" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="S334" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T334" s="4">
+        <v>2</v>
+      </c>
+      <c r="U334" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V334" s="4">
+        <v>2</v>
+      </c>
+      <c r="W334" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X334" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y334" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z334" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="AA334" s="4"/>
+      <c r="AB334" s="4"/>
+      <c r="AC334" s="4"/>
+      <c r="AF334" s="4"/>
+    </row>
+    <row r="335" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K335" s="4">
+        <v>5</v>
+      </c>
+      <c r="L335" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M335" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N335" s="4">
+        <v>3</v>
+      </c>
+      <c r="O335" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="P335" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q335" s="4">
+        <v>4</v>
+      </c>
+      <c r="R335" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="S335" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T335" s="4">
+        <v>4</v>
+      </c>
+      <c r="U335" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V335" s="4">
+        <v>0</v>
+      </c>
+      <c r="W335" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X335" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="Y335" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z335" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA335" s="4"/>
+      <c r="AB335" s="4"/>
+      <c r="AC335" s="4"/>
+      <c r="AF335" s="4"/>
+    </row>
+    <row r="336" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H336" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K336" s="4">
+        <v>4</v>
+      </c>
+      <c r="L336" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M336" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N336" s="4">
+        <v>4</v>
+      </c>
+      <c r="O336" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="P336" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q336" s="4">
+        <v>3</v>
+      </c>
+      <c r="R336" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="S336" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T336" s="4">
+        <v>2</v>
+      </c>
+      <c r="U336" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V336" s="4">
+        <v>10</v>
+      </c>
+      <c r="W336" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X336" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y336" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z336" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA336" s="4"/>
+      <c r="AB336" s="4"/>
+      <c r="AC336" s="4"/>
+      <c r="AF336" s="4"/>
+    </row>
+    <row r="337" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I337" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K337" s="4">
+        <v>4</v>
+      </c>
+      <c r="L337" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M337" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N337" s="4">
+        <v>4</v>
+      </c>
+      <c r="O337" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P337" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q337" s="4">
+        <v>3</v>
+      </c>
+      <c r="R337" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S337" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="T337" s="4">
+        <v>3</v>
+      </c>
+      <c r="U337" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V337" s="4">
+        <v>1</v>
+      </c>
+      <c r="W337" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X337" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y337" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z337" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA337" s="4"/>
+      <c r="AB337" s="4"/>
+      <c r="AC337" s="4"/>
+      <c r="AF337" s="4"/>
+    </row>
+    <row r="338" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H338" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I338" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K338" s="4">
+        <v>2</v>
+      </c>
+      <c r="L338" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M338" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N338" s="4">
+        <v>2</v>
+      </c>
+      <c r="O338" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P338" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q338" s="4">
+        <v>2</v>
+      </c>
+      <c r="R338" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="S338" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T338" s="4">
+        <v>3</v>
+      </c>
+      <c r="U338" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V338" s="4">
+        <v>0</v>
+      </c>
+      <c r="W338" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X338" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Y338" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z338" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AA338" s="4"/>
+      <c r="AB338" s="4"/>
+      <c r="AC338" s="4"/>
+      <c r="AF338" s="4"/>
+    </row>
+    <row r="339" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I339" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K339" s="4">
+        <v>5</v>
+      </c>
+      <c r="L339" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="M339" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N339" s="4">
+        <v>4</v>
+      </c>
+      <c r="O339" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P339" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q339" s="4">
+        <v>3</v>
+      </c>
+      <c r="R339" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="S339" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T339" s="4">
+        <v>4</v>
+      </c>
+      <c r="U339" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="V339" s="4">
+        <v>0</v>
+      </c>
+      <c r="W339" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X339" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y339" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z339" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AA339" s="4"/>
+      <c r="AB339" s="4"/>
+      <c r="AC339" s="4"/>
+      <c r="AF339" s="4"/>
+    </row>
+    <row r="340" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I340" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K340" s="4">
+        <v>5</v>
+      </c>
+      <c r="L340" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M340" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N340" s="4">
+        <v>4</v>
+      </c>
+      <c r="O340" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="P340" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q340" s="4">
+        <v>5</v>
+      </c>
+      <c r="R340" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="S340" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T340" s="4">
+        <v>4</v>
+      </c>
+      <c r="U340" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V340" s="4">
+        <v>6</v>
+      </c>
+      <c r="W340" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X340" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Y340" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z340" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA340" s="4"/>
+      <c r="AB340" s="4"/>
+      <c r="AC340" s="4"/>
+      <c r="AF340" s="4"/>
+    </row>
+    <row r="341" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K341" s="4">
+        <v>4</v>
+      </c>
+      <c r="L341" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M341" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N341" s="4">
+        <v>4</v>
+      </c>
+      <c r="O341" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P341" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q341" s="4">
+        <v>5</v>
+      </c>
+      <c r="R341" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="S341" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T341" s="4">
+        <v>3</v>
+      </c>
+      <c r="U341" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V341" s="4">
+        <v>5</v>
+      </c>
+      <c r="W341" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X341" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y341" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z341" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA341" s="4"/>
+      <c r="AB341" s="4"/>
+      <c r="AC341" s="4"/>
+      <c r="AF341" s="4"/>
+    </row>
+    <row r="342" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K342" s="4">
+        <v>3</v>
+      </c>
+      <c r="L342" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="M342" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N342" s="4">
+        <v>3</v>
+      </c>
+      <c r="O342" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P342" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q342" s="4">
+        <v>3</v>
+      </c>
+      <c r="R342" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="S342" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T342" s="4">
+        <v>4</v>
+      </c>
+      <c r="U342" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V342" s="4">
+        <v>15</v>
+      </c>
+      <c r="W342" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X342" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y342" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z342" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA342" s="4"/>
+      <c r="AB342" s="4"/>
+      <c r="AC342" s="4"/>
+      <c r="AF342" s="4"/>
+    </row>
+    <row r="343" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K343" s="4">
+        <v>4</v>
+      </c>
+      <c r="L343" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="M343" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N343" s="4">
+        <v>4</v>
+      </c>
+      <c r="O343" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P343" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q343" s="4">
+        <v>4</v>
+      </c>
+      <c r="R343" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="S343" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T343" s="4">
+        <v>4</v>
+      </c>
+      <c r="U343" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V343" s="4">
+        <v>0</v>
+      </c>
+      <c r="W343" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X343" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y343" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z343" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA343" s="4"/>
+      <c r="AB343" s="4"/>
+      <c r="AC343" s="4"/>
+      <c r="AF343" s="4"/>
+    </row>
+    <row r="344" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I344" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K344" s="4">
+        <v>4</v>
+      </c>
+      <c r="L344" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="M344" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N344" s="4">
+        <v>3</v>
+      </c>
+      <c r="O344" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P344" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q344" s="4">
+        <v>4</v>
+      </c>
+      <c r="R344" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="S344" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T344" s="4">
+        <v>4</v>
+      </c>
+      <c r="U344" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="V344" s="4">
+        <v>1</v>
+      </c>
+      <c r="W344" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X344" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="Y344" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z344" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="AA344" s="4"/>
+      <c r="AB344" s="4"/>
+      <c r="AC344" s="4"/>
+      <c r="AF344" s="4"/>
+    </row>
+    <row r="345" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I345" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K345" s="4">
+        <v>5</v>
+      </c>
+      <c r="L345" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M345" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N345" s="4">
+        <v>4</v>
+      </c>
+      <c r="O345" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="P345" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q345" s="4">
+        <v>4</v>
+      </c>
+      <c r="R345" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="S345" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T345" s="4">
+        <v>5</v>
+      </c>
+      <c r="U345" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V345" s="4">
+        <v>0</v>
+      </c>
+      <c r="W345" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X345" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y345" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z345" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AA345" s="4"/>
+      <c r="AB345" s="4"/>
+      <c r="AC345" s="4"/>
+      <c r="AF345" s="4"/>
+    </row>
+    <row r="346" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H346" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I346" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K346" s="4">
+        <v>5</v>
+      </c>
+      <c r="L346" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="M346" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N346" s="4">
+        <v>4</v>
+      </c>
+      <c r="O346" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="P346" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q346" s="4">
+        <v>4</v>
+      </c>
+      <c r="R346" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="S346" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T346" s="4">
+        <v>3</v>
+      </c>
+      <c r="U346" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V346" s="4">
+        <v>6</v>
+      </c>
+      <c r="W346" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X346" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y346" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z346" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA346" s="4"/>
+      <c r="AB346" s="4"/>
+      <c r="AC346" s="4"/>
+      <c r="AF346" s="4"/>
+    </row>
+    <row r="347" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H347" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I347" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K347" s="4">
+        <v>5</v>
+      </c>
+      <c r="L347" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M347" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N347" s="4">
+        <v>5</v>
+      </c>
+      <c r="O347" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P347" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q347" s="4">
+        <v>3</v>
+      </c>
+      <c r="R347" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="S347" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T347" s="4">
+        <v>4</v>
+      </c>
+      <c r="U347" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V347" s="4">
+        <v>10</v>
+      </c>
+      <c r="W347" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X347" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y347" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z347" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AA347" s="4"/>
+      <c r="AB347" s="4"/>
+      <c r="AC347" s="4"/>
+      <c r="AF347" s="4"/>
+    </row>
+    <row r="348" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H348" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K348" s="4">
+        <v>4</v>
+      </c>
+      <c r="L348" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M348" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N348" s="4">
+        <v>3</v>
+      </c>
+      <c r="O348" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="P348" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q348" s="4">
+        <v>3</v>
+      </c>
+      <c r="R348" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="S348" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T348" s="4">
+        <v>2</v>
+      </c>
+      <c r="U348" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V348" s="4">
+        <v>2</v>
+      </c>
+      <c r="W348" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X348" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y348" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z348" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA348" s="4"/>
+      <c r="AB348" s="4"/>
+      <c r="AC348" s="4"/>
+      <c r="AF348" s="4"/>
+    </row>
+    <row r="349" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H349" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I349" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K349" s="4">
+        <v>4</v>
+      </c>
+      <c r="L349" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="M349" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N349" s="4">
+        <v>4</v>
+      </c>
+      <c r="O349" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P349" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q349" s="4">
+        <v>4</v>
+      </c>
+      <c r="R349" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="S349" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T349" s="4">
+        <v>3</v>
+      </c>
+      <c r="U349" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V349" s="4">
+        <v>1</v>
+      </c>
+      <c r="W349" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X349" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Y349" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z349" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA349" s="4"/>
+      <c r="AB349" s="4"/>
+      <c r="AC349" s="4"/>
+      <c r="AF349" s="4"/>
+    </row>
+    <row r="350" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I350" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J350" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K350" s="4">
+        <v>5</v>
+      </c>
+      <c r="L350" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M350" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N350" s="4">
+        <v>3</v>
+      </c>
+      <c r="O350" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P350" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q350" s="4">
+        <v>4</v>
+      </c>
+      <c r="R350" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="S350" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T350" s="4">
+        <v>2</v>
+      </c>
+      <c r="U350" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V350" s="4">
+        <v>4</v>
+      </c>
+      <c r="W350" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X350" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y350" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z350" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA350" s="4"/>
+      <c r="AB350" s="4"/>
+      <c r="AC350" s="4"/>
+      <c r="AF350" s="4"/>
+    </row>
+    <row r="351" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H351" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I351" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="J351" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K351" s="4">
+        <v>4</v>
+      </c>
+      <c r="L351" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M351" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N351" s="4">
+        <v>4</v>
+      </c>
+      <c r="O351" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P351" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q351" s="4">
+        <v>4</v>
+      </c>
+      <c r="R351" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="S351" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T351" s="4">
+        <v>3</v>
+      </c>
+      <c r="U351" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V351" s="4">
+        <v>0</v>
+      </c>
+      <c r="W351" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X351" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y351" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z351" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA351" s="4"/>
+      <c r="AB351" s="4"/>
+      <c r="AC351" s="4"/>
+      <c r="AF351" s="4"/>
+    </row>
+    <row r="352" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I352" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J352" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K352" s="4">
+        <v>3</v>
+      </c>
+      <c r="L352" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M352" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N352" s="4">
+        <v>3</v>
+      </c>
+      <c r="O352" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P352" s="4"/>
+      <c r="Q352" s="4">
+        <v>1</v>
+      </c>
+      <c r="R352" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S352" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T352" s="4">
+        <v>1</v>
+      </c>
+      <c r="U352" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V352" s="4">
+        <v>5</v>
+      </c>
+      <c r="W352" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X352" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y352" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z352" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AA352" s="4"/>
+      <c r="AB352" s="4"/>
+      <c r="AC352" s="4"/>
+      <c r="AF352" s="4"/>
+    </row>
+    <row r="353" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I353" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="J353" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K353" s="4">
+        <v>5</v>
+      </c>
+      <c r="L353" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M353" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N353" s="4">
+        <v>4</v>
+      </c>
+      <c r="O353" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P353" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q353" s="4">
+        <v>3</v>
+      </c>
+      <c r="R353" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="S353" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T353" s="4">
+        <v>4</v>
+      </c>
+      <c r="U353" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V353" s="4">
+        <v>1</v>
+      </c>
+      <c r="W353" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X353" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Y353" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z353" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="AA353" s="4"/>
+      <c r="AB353" s="4"/>
+      <c r="AC353" s="4"/>
+      <c r="AF353" s="4"/>
+    </row>
+    <row r="354" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F354" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I354" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="J354" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K354" s="4">
+        <v>5</v>
+      </c>
+      <c r="L354" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M354" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N354" s="4">
+        <v>3</v>
+      </c>
+      <c r="O354" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P354" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q354" s="4">
+        <v>3</v>
+      </c>
+      <c r="R354" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="S354" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T354" s="4">
+        <v>2</v>
+      </c>
+      <c r="U354" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V354" s="4">
+        <v>10</v>
+      </c>
+      <c r="W354" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X354" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y354" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z354" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA354" s="4"/>
+      <c r="AB354" s="4"/>
+      <c r="AC354" s="4"/>
+      <c r="AF354" s="4"/>
+    </row>
+    <row r="355" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I355" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K355" s="4">
+        <v>5</v>
+      </c>
+      <c r="L355" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M355" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N355" s="4">
+        <v>4</v>
+      </c>
+      <c r="O355" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P355" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q355" s="4">
+        <v>4</v>
+      </c>
+      <c r="R355" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="S355" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T355" s="4">
+        <v>4</v>
+      </c>
+      <c r="U355" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V355" s="4">
+        <v>5</v>
+      </c>
+      <c r="W355" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X355" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y355" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z355" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA355" s="4"/>
+      <c r="AB355" s="4"/>
+      <c r="AC355" s="4"/>
+      <c r="AF355" s="4"/>
+    </row>
+    <row r="356" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H356" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I356" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K356" s="4">
+        <v>3</v>
+      </c>
+      <c r="L356" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M356" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N356" s="4">
+        <v>4</v>
+      </c>
+      <c r="O356" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P356" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q356" s="4">
+        <v>4</v>
+      </c>
+      <c r="R356" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="S356" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T356" s="4">
+        <v>4</v>
+      </c>
+      <c r="U356" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V356" s="4">
+        <v>13</v>
+      </c>
+      <c r="W356" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X356" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y356" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z356" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="AA356" s="4"/>
+      <c r="AB356" s="4"/>
+      <c r="AC356" s="4"/>
+      <c r="AF356" s="4"/>
+    </row>
+    <row r="357" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I357" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J357" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K357" s="4">
+        <v>5</v>
+      </c>
+      <c r="L357" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="M357" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N357" s="4">
+        <v>5</v>
+      </c>
+      <c r="O357" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P357" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q357" s="4">
+        <v>4</v>
+      </c>
+      <c r="R357" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S357" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T357" s="4">
+        <v>4</v>
+      </c>
+      <c r="U357" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V357" s="4">
+        <v>3</v>
+      </c>
+      <c r="W357" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X357" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="Y357" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z357" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA357" s="4"/>
+      <c r="AB357" s="4"/>
+      <c r="AC357" s="4"/>
+      <c r="AF357" s="4"/>
+    </row>
+    <row r="358" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H358" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I358" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J358" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K358" s="4">
+        <v>3</v>
+      </c>
+      <c r="L358" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M358" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N358" s="4">
+        <v>3</v>
+      </c>
+      <c r="O358" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="P358" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q358" s="4">
+        <v>3</v>
+      </c>
+      <c r="R358" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="S358" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T358" s="4">
+        <v>3</v>
+      </c>
+      <c r="U358" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V358" s="4">
+        <v>0</v>
+      </c>
+      <c r="W358" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X358" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y358" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z358" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA358" s="4"/>
+      <c r="AB358" s="4"/>
+      <c r="AC358" s="4"/>
+      <c r="AF358" s="4"/>
+    </row>
+    <row r="359" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I359" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J359" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K359" s="4">
+        <v>3</v>
+      </c>
+      <c r="L359" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="M359" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N359" s="4">
+        <v>3</v>
+      </c>
+      <c r="O359" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P359" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q359" s="4">
+        <v>3</v>
+      </c>
+      <c r="R359" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S359" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T359" s="4">
+        <v>3</v>
+      </c>
+      <c r="U359" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V359" s="4">
+        <v>6</v>
+      </c>
+      <c r="W359" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X359" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y359" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z359" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA359" s="4"/>
+      <c r="AB359" s="4"/>
+      <c r="AC359" s="4"/>
+      <c r="AF359" s="4"/>
+    </row>
+    <row r="360" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H360" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I360" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J360" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K360" s="4">
+        <v>5</v>
+      </c>
+      <c r="L360" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M360" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N360" s="4">
+        <v>3</v>
+      </c>
+      <c r="O360" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="P360" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q360" s="4">
+        <v>4</v>
+      </c>
+      <c r="R360" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S360" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T360" s="4">
+        <v>3</v>
+      </c>
+      <c r="U360" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V360" s="4">
+        <v>10</v>
+      </c>
+      <c r="W360" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X360" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y360" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z360" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA360" s="4"/>
+      <c r="AB360" s="4"/>
+      <c r="AC360" s="4"/>
+      <c r="AF360" s="4"/>
+    </row>
+    <row r="361" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H361" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I361" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="J361" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K361" s="4">
+        <v>4</v>
+      </c>
+      <c r="L361" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M361" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N361" s="4">
+        <v>4</v>
+      </c>
+      <c r="O361" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P361" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q361" s="4">
+        <v>2</v>
+      </c>
+      <c r="R361" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="S361" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T361" s="4">
+        <v>3</v>
+      </c>
+      <c r="U361" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V361" s="4">
+        <v>3</v>
+      </c>
+      <c r="W361" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X361" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Y361" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z361" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA361" s="4"/>
+      <c r="AB361" s="4"/>
+      <c r="AC361" s="4"/>
+      <c r="AF361" s="4"/>
+    </row>
+    <row r="362" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I362" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="J362" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K362" s="4">
+        <v>5</v>
+      </c>
+      <c r="L362" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="M362" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N362" s="4">
+        <v>4</v>
+      </c>
+      <c r="O362" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="P362" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q362" s="4">
+        <v>4</v>
+      </c>
+      <c r="R362" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="S362" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T362" s="4">
+        <v>3</v>
+      </c>
+      <c r="U362" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V362" s="4">
+        <v>3</v>
+      </c>
+      <c r="W362" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X362" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Y362" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z362" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA362" s="4"/>
+      <c r="AB362" s="4"/>
+      <c r="AC362" s="4"/>
+      <c r="AF362" s="4"/>
+    </row>
+    <row r="363" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H363" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I363" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J363" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K363" s="4">
+        <v>4</v>
+      </c>
+      <c r="L363" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="M363" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N363" s="4">
+        <v>4</v>
+      </c>
+      <c r="O363" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P363" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q363" s="4">
+        <v>2</v>
+      </c>
+      <c r="R363" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="S363" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T363" s="4">
+        <v>1</v>
+      </c>
+      <c r="U363" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V363" s="4">
+        <v>2</v>
+      </c>
+      <c r="W363" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X363" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="Y363" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z363" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA363" s="4"/>
+      <c r="AB363" s="4"/>
+      <c r="AC363" s="4"/>
+      <c r="AF363" s="4"/>
+    </row>
+    <row r="364" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H364" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I364" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J364" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K364" s="4">
+        <v>5</v>
+      </c>
+      <c r="L364" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M364" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N364" s="4">
+        <v>3</v>
+      </c>
+      <c r="O364" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="P364" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q364" s="4">
+        <v>4</v>
+      </c>
+      <c r="R364" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S364" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T364" s="4">
+        <v>4</v>
+      </c>
+      <c r="U364" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V364" s="4">
+        <v>1</v>
+      </c>
+      <c r="W364" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X364" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Y364" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z364" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA364" s="4"/>
+      <c r="AB364" s="4"/>
+      <c r="AC364" s="4"/>
+      <c r="AF364" s="4"/>
+    </row>
+    <row r="365" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H365" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I365" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="J365" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K365" s="4">
+        <v>4</v>
+      </c>
+      <c r="L365" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="M365" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N365" s="4">
+        <v>3</v>
+      </c>
+      <c r="O365" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P365" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q365" s="4">
+        <v>4</v>
+      </c>
+      <c r="R365" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="S365" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T365" s="4">
+        <v>3</v>
+      </c>
+      <c r="U365" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V365" s="4">
+        <v>1</v>
+      </c>
+      <c r="W365" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X365" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Y365" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z365" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA365" s="4"/>
+      <c r="AB365" s="4"/>
+      <c r="AC365" s="4"/>
+      <c r="AF365" s="4"/>
+    </row>
+    <row r="366" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H366" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I366" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="J366" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K366" s="4">
+        <v>5</v>
+      </c>
+      <c r="L366" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M366" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N366" s="4">
+        <v>4</v>
+      </c>
+      <c r="O366" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P366" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q366" s="4">
+        <v>5</v>
+      </c>
+      <c r="R366" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S366" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T366" s="4">
+        <v>4</v>
+      </c>
+      <c r="U366" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V366" s="4">
+        <v>0</v>
+      </c>
+      <c r="W366" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X366" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Y366" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z366" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AA366" s="4"/>
+      <c r="AB366" s="4"/>
+      <c r="AC366" s="4"/>
+      <c r="AF366" s="4"/>
+    </row>
+    <row r="367" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F367" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H367" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I367" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="J367" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K367" s="4">
+        <v>3</v>
+      </c>
+      <c r="L367" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="M367" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N367" s="4">
+        <v>2</v>
+      </c>
+      <c r="O367" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="P367" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q367" s="4">
+        <v>4</v>
+      </c>
+      <c r="R367" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="S367" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T367" s="4">
+        <v>4</v>
+      </c>
+      <c r="U367" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V367" s="4">
+        <v>6</v>
+      </c>
+      <c r="W367" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X367" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="Y367" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z367" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AA367" s="4"/>
+      <c r="AB367" s="4"/>
+      <c r="AC367" s="4"/>
+      <c r="AF367" s="4"/>
+    </row>
+    <row r="368" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F368" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H368" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I368" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J368" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K368" s="4">
+        <v>4</v>
+      </c>
+      <c r="L368" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="M368" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N368" s="4">
+        <v>4</v>
+      </c>
+      <c r="O368" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P368" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q368" s="4">
+        <v>2</v>
+      </c>
+      <c r="R368" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="S368" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T368" s="4">
+        <v>2</v>
+      </c>
+      <c r="U368" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V368" s="4">
+        <v>5</v>
+      </c>
+      <c r="W368" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X368" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Y368" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z368" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AA368" s="4"/>
+      <c r="AB368" s="4"/>
+      <c r="AC368" s="4"/>
+      <c r="AF368" s="4"/>
+    </row>
+    <row r="369" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H369" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I369" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="J369" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K369" s="4">
+        <v>5</v>
+      </c>
+      <c r="L369" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M369" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N369" s="4">
+        <v>5</v>
+      </c>
+      <c r="O369" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="P369" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q369" s="4">
+        <v>4</v>
+      </c>
+      <c r="R369" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="S369" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T369" s="4">
+        <v>4</v>
+      </c>
+      <c r="U369" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V369" s="4">
+        <v>1</v>
+      </c>
+      <c r="W369" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X369" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y369" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z369" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA369" s="4"/>
+      <c r="AB369" s="4"/>
+      <c r="AC369" s="4"/>
+      <c r="AF369" s="4"/>
+    </row>
+    <row r="370" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G370" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H370" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I370" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J370" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K370" s="4">
+        <v>5</v>
+      </c>
+      <c r="L370" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M370" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N370" s="4">
+        <v>4</v>
+      </c>
+      <c r="O370" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P370" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q370" s="4">
+        <v>3</v>
+      </c>
+      <c r="R370" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S370" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T370" s="4">
+        <v>3</v>
+      </c>
+      <c r="U370" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V370" s="4">
+        <v>2</v>
+      </c>
+      <c r="W370" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X370" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y370" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z370" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA370" s="4"/>
+      <c r="AB370" s="4"/>
+      <c r="AC370" s="4"/>
+      <c r="AF370" s="4"/>
+    </row>
+    <row r="371" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G371" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H371" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I371" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J371" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K371" s="4">
+        <v>3</v>
+      </c>
+      <c r="L371" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M371" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N371" s="4">
+        <v>3</v>
+      </c>
+      <c r="O371" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P371" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q371" s="4">
+        <v>2</v>
+      </c>
+      <c r="R371" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="S371" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T371" s="4">
+        <v>4</v>
+      </c>
+      <c r="U371" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="V371" s="4">
+        <v>0</v>
+      </c>
+      <c r="W371" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X371" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y371" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z371" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AA371" s="4"/>
+      <c r="AB371" s="4"/>
+      <c r="AC371" s="4"/>
+      <c r="AF371" s="4"/>
+    </row>
+    <row r="372" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H372" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I372" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J372" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K372" s="4">
+        <v>4</v>
+      </c>
+      <c r="L372" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M372" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N372" s="4">
+        <v>5</v>
+      </c>
+      <c r="O372" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P372" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q372" s="4">
+        <v>3</v>
+      </c>
+      <c r="R372" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S372" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T372" s="4">
+        <v>3</v>
+      </c>
+      <c r="U372" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V372" s="4">
+        <v>3</v>
+      </c>
+      <c r="W372" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X372" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y372" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z372" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AA372" s="4"/>
+      <c r="AB372" s="4"/>
+      <c r="AC372" s="4"/>
+      <c r="AF372" s="4"/>
+    </row>
+    <row r="373" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H373" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I373" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J373" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K373" s="4">
+        <v>5</v>
+      </c>
+      <c r="L373" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="M373" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N373" s="4">
+        <v>5</v>
+      </c>
+      <c r="O373" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="P373" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q373" s="4">
+        <v>5</v>
+      </c>
+      <c r="R373" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="S373" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T373" s="4">
+        <v>5</v>
+      </c>
+      <c r="U373" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V373" s="4">
+        <v>4</v>
+      </c>
+      <c r="W373" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X373" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y373" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z373" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA373" s="4"/>
+      <c r="AB373" s="4"/>
+      <c r="AC373" s="4"/>
+      <c r="AF373" s="4"/>
+    </row>
+    <row r="374" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H374" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I374" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J374" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K374" s="4">
+        <v>5</v>
+      </c>
+      <c r="L374" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M374" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N374" s="4">
+        <v>4</v>
+      </c>
+      <c r="O374" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P374" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q374" s="4">
+        <v>4</v>
+      </c>
+      <c r="R374" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S374" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T374" s="4">
+        <v>4</v>
+      </c>
+      <c r="U374" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V374" s="4">
+        <v>0</v>
+      </c>
+      <c r="W374" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X374" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y374" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z374" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA374" s="4"/>
+      <c r="AB374" s="4"/>
+      <c r="AC374" s="4"/>
+      <c r="AF374" s="4"/>
+    </row>
+    <row r="375" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H375" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I375" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J375" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K375" s="4">
+        <v>3</v>
+      </c>
+      <c r="L375" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M375" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N375" s="4">
+        <v>3</v>
+      </c>
+      <c r="O375" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P375" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q375" s="4">
+        <v>3</v>
+      </c>
+      <c r="R375" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="S375" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T375" s="4">
+        <v>2</v>
+      </c>
+      <c r="U375" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V375" s="4">
+        <v>10</v>
+      </c>
+      <c r="W375" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X375" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y375" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z375" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA375" s="4"/>
+      <c r="AB375" s="4"/>
+      <c r="AC375" s="4"/>
+      <c r="AF375" s="4"/>
+    </row>
+    <row r="376" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H376" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I376" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J376" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K376" s="4">
+        <v>4</v>
+      </c>
+      <c r="L376" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="M376" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N376" s="4">
+        <v>4</v>
+      </c>
+      <c r="O376" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="P376" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q376" s="4">
+        <v>4</v>
+      </c>
+      <c r="R376" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S376" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T376" s="4">
+        <v>3</v>
+      </c>
+      <c r="U376" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V376" s="4">
+        <v>2</v>
+      </c>
+      <c r="W376" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X376" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Y376" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z376" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA376" s="4"/>
+      <c r="AB376" s="4"/>
+      <c r="AC376" s="4"/>
+      <c r="AF376" s="4"/>
+    </row>
+    <row r="377" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H377" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I377" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="J377" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K377" s="4">
+        <v>3</v>
+      </c>
+      <c r="L377" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="M377" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N377" s="4">
+        <v>3</v>
+      </c>
+      <c r="O377" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P377" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q377" s="4">
+        <v>3</v>
+      </c>
+      <c r="R377" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="S377" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T377" s="4">
+        <v>3</v>
+      </c>
+      <c r="U377" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V377" s="4">
+        <v>3</v>
+      </c>
+      <c r="W377" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X377" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y377" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z377" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA377" s="4"/>
+      <c r="AB377" s="4"/>
+      <c r="AC377" s="4"/>
+      <c r="AF377" s="4"/>
+    </row>
+    <row r="378" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H378" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I378" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J378" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K378" s="4">
+        <v>5</v>
+      </c>
+      <c r="L378" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M378" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N378" s="4">
+        <v>5</v>
+      </c>
+      <c r="O378" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P378" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q378" s="4">
+        <v>4</v>
+      </c>
+      <c r="R378" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="S378" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T378" s="4">
+        <v>4</v>
+      </c>
+      <c r="U378" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V378" s="4">
+        <v>0</v>
+      </c>
+      <c r="W378" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X378" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y378" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z378" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA378" s="4"/>
+      <c r="AB378" s="4"/>
+      <c r="AC378" s="4"/>
+      <c r="AF378" s="4"/>
+    </row>
+    <row r="379" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F379" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H379" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I379" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="J379" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K379" s="4">
+        <v>3</v>
+      </c>
+      <c r="L379" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M379" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N379" s="4">
+        <v>4</v>
+      </c>
+      <c r="O379" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="P379" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q379" s="4">
+        <v>4</v>
+      </c>
+      <c r="R379" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S379" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T379" s="4">
+        <v>4</v>
+      </c>
+      <c r="U379" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V379" s="4">
+        <v>0</v>
+      </c>
+      <c r="W379" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X379" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Y379" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z379" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="AA379" s="4"/>
+      <c r="AB379" s="4"/>
+      <c r="AC379" s="4"/>
+      <c r="AF379" s="4"/>
+    </row>
+    <row r="380" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F380" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G380" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H380" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I380" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J380" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K380" s="4">
+        <v>5</v>
+      </c>
+      <c r="L380" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M380" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N380" s="4">
+        <v>2</v>
+      </c>
+      <c r="O380" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="P380" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q380" s="4">
+        <v>3</v>
+      </c>
+      <c r="R380" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="S380" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T380" s="4">
+        <v>3</v>
+      </c>
+      <c r="U380" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V380" s="4">
+        <v>2</v>
+      </c>
+      <c r="W380" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X380" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Y380" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z380" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA380" s="4"/>
+      <c r="AB380" s="4"/>
+      <c r="AC380" s="4"/>
+      <c r="AF380" s="4"/>
+    </row>
+    <row r="381" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H381" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I381" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J381" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K381" s="4">
+        <v>5</v>
+      </c>
+      <c r="L381" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="M381" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N381" s="4">
+        <v>5</v>
+      </c>
+      <c r="O381" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="P381" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q381" s="4">
+        <v>4</v>
+      </c>
+      <c r="R381" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="S381" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T381" s="4">
+        <v>4</v>
+      </c>
+      <c r="U381" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V381" s="4">
+        <v>1</v>
+      </c>
+      <c r="W381" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X381" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y381" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z381" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA381" s="4"/>
+      <c r="AB381" s="4"/>
+      <c r="AC381" s="4"/>
+      <c r="AF381" s="4"/>
+    </row>
+    <row r="382" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G382" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H382" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I382" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J382" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K382" s="4">
+        <v>4</v>
+      </c>
+      <c r="L382" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M382" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N382" s="4">
+        <v>4</v>
+      </c>
+      <c r="O382" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P382" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q382" s="4">
+        <v>4</v>
+      </c>
+      <c r="R382" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="S382" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T382" s="4">
+        <v>4</v>
+      </c>
+      <c r="U382" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V382" s="4">
+        <v>8</v>
+      </c>
+      <c r="W382" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X382" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y382" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z382" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA382" s="4"/>
+      <c r="AB382" s="4"/>
+      <c r="AC382" s="4"/>
+      <c r="AF382" s="4"/>
+    </row>
+    <row r="383" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F383" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G383" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H383" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I383" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J383" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K383" s="4">
+        <v>5</v>
+      </c>
+      <c r="L383" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M383" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N383" s="4">
+        <v>5</v>
+      </c>
+      <c r="O383" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P383" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q383" s="4">
+        <v>5</v>
+      </c>
+      <c r="R383" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="S383" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T383" s="4">
+        <v>5</v>
+      </c>
+      <c r="U383" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V383" s="4">
+        <v>10</v>
+      </c>
+      <c r="W383" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X383" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y383" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z383" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA383" s="4"/>
+      <c r="AB383" s="4"/>
+      <c r="AC383" s="4"/>
+      <c r="AF383" s="4"/>
+    </row>
+    <row r="384" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F384" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H384" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I384" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J384" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K384" s="4">
+        <v>3</v>
+      </c>
+      <c r="L384" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M384" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N384" s="4">
+        <v>3</v>
+      </c>
+      <c r="O384" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P384" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q384" s="4">
+        <v>4</v>
+      </c>
+      <c r="R384" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="S384" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T384" s="4">
+        <v>4</v>
+      </c>
+      <c r="U384" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V384" s="4">
+        <v>5</v>
+      </c>
+      <c r="W384" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="X384" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Y384" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z384" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AA384" s="4"/>
+      <c r="AB384" s="4"/>
+      <c r="AC384" s="4"/>
+      <c r="AF384" s="4"/>
+    </row>
+    <row r="385" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F385" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G385" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H385" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I385" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J385" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K385" s="4">
+        <v>4</v>
+      </c>
+      <c r="L385" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M385" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N385" s="4">
+        <v>4</v>
+      </c>
+      <c r="O385" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="P385" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q385" s="4">
+        <v>4</v>
+      </c>
+      <c r="R385" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="S385" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="T385" s="4">
+        <v>4</v>
+      </c>
+      <c r="U385" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V385" s="4">
+        <v>15</v>
+      </c>
+      <c r="W385" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X385" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Y385" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z385" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA385" s="4"/>
+      <c r="AB385" s="4"/>
+      <c r="AC385" s="4"/>
+      <c r="AF385" s="4"/>
+    </row>
+    <row r="386" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E386" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F386" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G386" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I386" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J386" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K386" s="4">
+        <v>4</v>
+      </c>
+      <c r="L386" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M386" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N386" s="4">
+        <v>4</v>
+      </c>
+      <c r="O386" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="P386" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q386" s="4">
+        <v>3</v>
+      </c>
+      <c r="R386" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S386" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T386" s="4">
+        <v>3</v>
+      </c>
+      <c r="U386" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V386" s="4">
+        <v>10</v>
+      </c>
+      <c r="W386" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X386" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Y386" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z386" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="AA386" s="4"/>
+      <c r="AB386" s="4"/>
+      <c r="AC386" s="4"/>
+      <c r="AF386" s="4"/>
+    </row>
+    <row r="387" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H387" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I387" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J387" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K387" s="4">
+        <v>4</v>
+      </c>
+      <c r="L387" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="M387" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N387" s="4">
+        <v>4</v>
+      </c>
+      <c r="O387" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="P387" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q387" s="4">
+        <v>3</v>
+      </c>
+      <c r="R387" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="S387" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T387" s="4">
+        <v>4</v>
+      </c>
+      <c r="U387" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V387" s="4">
+        <v>0</v>
+      </c>
+      <c r="W387" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X387" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y387" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z387" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA387" s="4"/>
+      <c r="AB387" s="4"/>
+      <c r="AC387" s="4"/>
+      <c r="AF387" s="4"/>
+    </row>
+    <row r="388" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F388" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G388" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H388" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I388" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="J388" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K388" s="4">
+        <v>3</v>
+      </c>
+      <c r="L388" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="M388" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N388" s="4">
+        <v>3</v>
+      </c>
+      <c r="O388" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P388" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q388" s="4">
+        <v>3</v>
+      </c>
+      <c r="R388" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="S388" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T388" s="4">
+        <v>3</v>
+      </c>
+      <c r="U388" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V388" s="4">
+        <v>1</v>
+      </c>
+      <c r="W388" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X388" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Y388" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z388" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA388" s="4"/>
+      <c r="AB388" s="4"/>
+      <c r="AC388" s="4"/>
+      <c r="AF388" s="4"/>
+    </row>
+    <row r="389" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F389" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G389" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H389" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I389" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="J389" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K389" s="4">
+        <v>2</v>
+      </c>
+      <c r="L389" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="M389" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N389" s="4">
+        <v>3</v>
+      </c>
+      <c r="O389" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="P389" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q389" s="4">
+        <v>3</v>
+      </c>
+      <c r="R389" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="S389" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T389" s="4">
+        <v>2</v>
+      </c>
+      <c r="U389" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V389" s="4">
+        <v>0</v>
+      </c>
+      <c r="W389" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X389" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Y389" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z389" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AA389" s="4"/>
+      <c r="AB389" s="4"/>
+      <c r="AC389" s="4"/>
+      <c r="AF389" s="4"/>
+    </row>
+    <row r="390" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F390" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G390" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H390" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I390" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J390" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K390" s="4">
+        <v>4</v>
+      </c>
+      <c r="L390" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M390" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N390" s="4">
+        <v>4</v>
+      </c>
+      <c r="O390" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P390" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q390" s="4">
+        <v>3</v>
+      </c>
+      <c r="R390" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S390" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T390" s="4">
+        <v>3</v>
+      </c>
+      <c r="U390" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V390" s="4">
+        <v>2</v>
+      </c>
+      <c r="W390" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X390" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y390" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z390" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA390" s="4"/>
+      <c r="AB390" s="4"/>
+      <c r="AC390" s="4"/>
+      <c r="AF390" s="4"/>
+    </row>
+    <row r="391" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F391" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G391" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I391" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J391" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K391" s="4">
+        <v>4</v>
+      </c>
+      <c r="L391" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M391" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N391" s="4">
+        <v>2</v>
+      </c>
+      <c r="O391" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="P391" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q391" s="4">
+        <v>2</v>
+      </c>
+      <c r="R391" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="S391" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T391" s="4">
+        <v>2</v>
+      </c>
+      <c r="U391" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V391" s="4">
+        <v>1</v>
+      </c>
+      <c r="W391" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="X391" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y391" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z391" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AA391" s="4"/>
+      <c r="AB391" s="4"/>
+      <c r="AF391" s="4"/>
+    </row>
+    <row r="392" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z392" s="4"/>
     </row>
-    <row r="393" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z393" s="4"/>
     </row>
-    <row r="394" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z394" s="4"/>
     </row>
-    <row r="395" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z395" s="4"/>
     </row>
-    <row r="396" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z396" s="4"/>
     </row>
-    <row r="397" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z397" s="4"/>
     </row>
-    <row r="398" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z398" s="4"/>
     </row>
-    <row r="399" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z399" s="4"/>
     </row>
-    <row r="400" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z400" s="4"/>
     </row>
-    <row r="401" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z401" s="4"/>
     </row>
-    <row r="402" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z402" s="4"/>
     </row>
-    <row r="403" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z403" s="4"/>
     </row>
-    <row r="404" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z404" s="4"/>
     </row>
-    <row r="405" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z405" s="4"/>
     </row>
-    <row r="406" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z406" s="4"/>
     </row>
-    <row r="407" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T407" s="4"/>
+      <c r="U407" s="4"/>
+      <c r="V407" s="4"/>
+      <c r="W407" s="4"/>
+      <c r="X407" s="4"/>
+      <c r="Y407" s="4"/>
       <c r="Z407" s="4"/>
-    </row>
-    <row r="408" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA407" s="4"/>
+    </row>
+    <row r="408" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T408" s="4"/>
+      <c r="U408" s="4"/>
+      <c r="V408" s="4"/>
+      <c r="W408" s="4"/>
+      <c r="X408" s="4"/>
+      <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
-    </row>
-    <row r="409" spans="26:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA408" s="4"/>
+    </row>
+    <row r="409" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T409" s="4"/>
+      <c r="U409" s="4"/>
+      <c r="V409" s="4"/>
+      <c r="W409" s="4"/>
+      <c r="X409" s="4"/>
+      <c r="Y409" s="4"/>
       <c r="Z409" s="4"/>
+      <c r="AA409" s="4"/>
+    </row>
+    <row r="410" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T410" s="4"/>
+      <c r="U410" s="4"/>
+      <c r="V410" s="4"/>
+      <c r="W410" s="4"/>
+      <c r="X410" s="4"/>
+      <c r="Y410" s="4"/>
+      <c r="Z410" s="4"/>
+      <c r="AA410" s="4"/>
+    </row>
+    <row r="411" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T411" s="4"/>
+      <c r="U411" s="4"/>
+      <c r="V411" s="4"/>
+      <c r="W411" s="4"/>
+      <c r="X411" s="4"/>
+      <c r="Y411" s="4"/>
+      <c r="Z411" s="4"/>
+      <c r="AA411" s="4"/>
+    </row>
+    <row r="412" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T412" s="4"/>
+      <c r="U412" s="4"/>
+      <c r="V412" s="4"/>
+      <c r="W412" s="4"/>
+      <c r="X412" s="4"/>
+      <c r="Y412" s="4"/>
+      <c r="Z412" s="4"/>
+      <c r="AA412" s="4"/>
+    </row>
+    <row r="413" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T413" s="4"/>
+      <c r="U413" s="4"/>
+      <c r="V413" s="4"/>
+      <c r="W413" s="4"/>
+      <c r="X413" s="4"/>
+      <c r="Y413" s="4"/>
+      <c r="Z413" s="4"/>
+      <c r="AA413" s="4"/>
+    </row>
+    <row r="414" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T414" s="4"/>
+      <c r="U414" s="4"/>
+      <c r="V414" s="4"/>
+      <c r="W414" s="4"/>
+      <c r="X414" s="4"/>
+      <c r="Y414" s="4"/>
+      <c r="Z414" s="4"/>
+      <c r="AA414" s="4"/>
+    </row>
+    <row r="415" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T415" s="4"/>
+      <c r="U415" s="4"/>
+      <c r="V415" s="4"/>
+      <c r="W415" s="4"/>
+      <c r="X415" s="4"/>
+      <c r="Y415" s="4"/>
+      <c r="Z415" s="4"/>
+      <c r="AA415" s="4"/>
+    </row>
+    <row r="416" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T416" s="4"/>
+      <c r="U416" s="4"/>
+      <c r="V416" s="4"/>
+      <c r="W416" s="4"/>
+      <c r="X416" s="4"/>
+      <c r="Y416" s="4"/>
+      <c r="Z416" s="4"/>
+      <c r="AA416" s="4"/>
+    </row>
+    <row r="417" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T417" s="4"/>
+      <c r="U417" s="4"/>
+      <c r="V417" s="4"/>
+      <c r="W417" s="4"/>
+      <c r="X417" s="4"/>
+      <c r="Y417" s="4"/>
+      <c r="Z417" s="4"/>
+      <c r="AA417" s="4"/>
+    </row>
+    <row r="418" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T418" s="4"/>
+      <c r="U418" s="4"/>
+      <c r="V418" s="4"/>
+      <c r="W418" s="4"/>
+      <c r="X418" s="4"/>
+      <c r="Y418" s="4"/>
+      <c r="Z418" s="4"/>
+      <c r="AA418" s="4"/>
+    </row>
+    <row r="419" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T419" s="4"/>
+      <c r="U419" s="4"/>
+      <c r="V419" s="4"/>
+      <c r="W419" s="4"/>
+      <c r="X419" s="4"/>
+      <c r="Y419" s="4"/>
+      <c r="Z419" s="4"/>
+      <c r="AA419" s="4"/>
+    </row>
+    <row r="420" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T420" s="4"/>
+      <c r="U420" s="4"/>
+      <c r="V420" s="4"/>
+      <c r="W420" s="4"/>
+      <c r="X420" s="4"/>
+      <c r="Y420" s="4"/>
+      <c r="Z420" s="4"/>
+      <c r="AA420" s="4"/>
+    </row>
+    <row r="421" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T421" s="4"/>
+      <c r="U421" s="4"/>
+      <c r="V421" s="4"/>
+      <c r="W421" s="4"/>
+      <c r="X421" s="4"/>
+      <c r="Y421" s="4"/>
+      <c r="Z421" s="4"/>
+      <c r="AA421" s="4"/>
+    </row>
+    <row r="422" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T422" s="4"/>
+      <c r="U422" s="4"/>
+      <c r="V422" s="4"/>
+      <c r="W422" s="4"/>
+      <c r="X422" s="4"/>
+      <c r="Y422" s="4"/>
+      <c r="Z422" s="4"/>
+      <c r="AA422" s="4"/>
+    </row>
+    <row r="423" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T423" s="4"/>
+      <c r="U423" s="4"/>
+      <c r="V423" s="4"/>
+      <c r="W423" s="4"/>
+      <c r="X423" s="4"/>
+      <c r="Y423" s="4"/>
+      <c r="Z423" s="4"/>
+      <c r="AA423" s="4"/>
+    </row>
+    <row r="424" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T424" s="4"/>
+      <c r="U424" s="4"/>
+      <c r="V424" s="4"/>
+      <c r="W424" s="4"/>
+      <c r="X424" s="4"/>
+      <c r="Y424" s="4"/>
+      <c r="Z424" s="4"/>
+      <c r="AA424" s="4"/>
+    </row>
+    <row r="425" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T425" s="4"/>
+      <c r="U425" s="4"/>
+      <c r="V425" s="4"/>
+      <c r="W425" s="4"/>
+      <c r="X425" s="4"/>
+      <c r="Y425" s="4"/>
+      <c r="Z425" s="4"/>
+      <c r="AA425" s="4"/>
+    </row>
+    <row r="426" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T426" s="4"/>
+      <c r="U426" s="4"/>
+      <c r="V426" s="4"/>
+      <c r="W426" s="4"/>
+      <c r="X426" s="4"/>
+      <c r="Y426" s="4"/>
+      <c r="Z426" s="4"/>
+      <c r="AA426" s="4"/>
+    </row>
+    <row r="427" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T427" s="4"/>
+      <c r="U427" s="4"/>
+      <c r="V427" s="4"/>
+      <c r="W427" s="4"/>
+      <c r="X427" s="4"/>
+      <c r="Y427" s="4"/>
+      <c r="Z427" s="4"/>
+      <c r="AA427" s="4"/>
+    </row>
+    <row r="428" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T428" s="4"/>
+      <c r="U428" s="4"/>
+      <c r="V428" s="4"/>
+      <c r="W428" s="4"/>
+      <c r="X428" s="4"/>
+      <c r="Y428" s="4"/>
+      <c r="Z428" s="4"/>
+      <c r="AA428" s="4"/>
+    </row>
+    <row r="429" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T429" s="4"/>
+      <c r="U429" s="4"/>
+      <c r="V429" s="4"/>
+      <c r="W429" s="4"/>
+      <c r="X429" s="4"/>
+      <c r="Y429" s="4"/>
+      <c r="Z429" s="4"/>
+      <c r="AA429" s="4"/>
+    </row>
+    <row r="430" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T430" s="4"/>
+      <c r="U430" s="4"/>
+      <c r="V430" s="4"/>
+      <c r="W430" s="4"/>
+      <c r="X430" s="4"/>
+      <c r="Y430" s="4"/>
+      <c r="Z430" s="4"/>
+      <c r="AA430" s="4"/>
+    </row>
+    <row r="431" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T431" s="4"/>
+      <c r="U431" s="4"/>
+      <c r="V431" s="4"/>
+      <c r="W431" s="4"/>
+      <c r="X431" s="4"/>
+      <c r="Y431" s="4"/>
+      <c r="Z431" s="4"/>
+      <c r="AA431" s="4"/>
+    </row>
+    <row r="432" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T432" s="4"/>
+      <c r="U432" s="4"/>
+      <c r="V432" s="4"/>
+      <c r="W432" s="4"/>
+      <c r="X432" s="4"/>
+      <c r="Y432" s="4"/>
+      <c r="Z432" s="4"/>
+      <c r="AA432" s="4"/>
+    </row>
+    <row r="433" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T433" s="4"/>
+      <c r="U433" s="4"/>
+      <c r="V433" s="4"/>
+      <c r="W433" s="4"/>
+      <c r="X433" s="4"/>
+      <c r="Y433" s="4"/>
+      <c r="Z433" s="4"/>
+      <c r="AA433" s="4"/>
+    </row>
+    <row r="434" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T434" s="4"/>
+      <c r="U434" s="4"/>
+      <c r="V434" s="4"/>
+      <c r="W434" s="4"/>
+      <c r="X434" s="4"/>
+      <c r="Y434" s="4"/>
+      <c r="Z434" s="4"/>
+      <c r="AA434" s="4"/>
+    </row>
+    <row r="435" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T435" s="4"/>
+      <c r="U435" s="4"/>
+      <c r="V435" s="4"/>
+      <c r="W435" s="4"/>
+      <c r="X435" s="4"/>
+      <c r="Y435" s="4"/>
+      <c r="Z435" s="4"/>
+      <c r="AA435" s="4"/>
+    </row>
+    <row r="436" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T436" s="4"/>
+      <c r="U436" s="4"/>
+      <c r="V436" s="4"/>
+      <c r="W436" s="4"/>
+      <c r="X436" s="4"/>
+      <c r="Y436" s="4"/>
+      <c r="Z436" s="4"/>
+      <c r="AA436" s="4"/>
+    </row>
+    <row r="437" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T437" s="4"/>
+      <c r="U437" s="4"/>
+      <c r="V437" s="4"/>
+      <c r="W437" s="4"/>
+      <c r="X437" s="4"/>
+      <c r="Y437" s="4"/>
+      <c r="Z437" s="4"/>
+      <c r="AA437" s="4"/>
+    </row>
+    <row r="438" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T438" s="4"/>
+      <c r="U438" s="4"/>
+      <c r="V438" s="4"/>
+      <c r="W438" s="4"/>
+      <c r="X438" s="4"/>
+      <c r="Y438" s="4"/>
+      <c r="Z438" s="4"/>
+      <c r="AA438" s="4"/>
+    </row>
+    <row r="439" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T439" s="4"/>
+      <c r="U439" s="4"/>
+      <c r="V439" s="4"/>
+      <c r="W439" s="4"/>
+      <c r="X439" s="4"/>
+      <c r="Y439" s="4"/>
+      <c r="Z439" s="4"/>
+      <c r="AA439" s="4"/>
+    </row>
+    <row r="440" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T440" s="4"/>
+      <c r="U440" s="4"/>
+      <c r="V440" s="4"/>
+      <c r="W440" s="4"/>
+      <c r="X440" s="4"/>
+      <c r="Y440" s="4"/>
+      <c r="Z440" s="4"/>
+      <c r="AA440" s="4"/>
+    </row>
+    <row r="441" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T441" s="4"/>
+      <c r="U441" s="4"/>
+      <c r="V441" s="4"/>
+      <c r="W441" s="4"/>
+      <c r="X441" s="4"/>
+      <c r="Y441" s="4"/>
+      <c r="Z441" s="4"/>
+      <c r="AA441" s="4"/>
+    </row>
+    <row r="442" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T442" s="4"/>
+      <c r="U442" s="4"/>
+      <c r="V442" s="4"/>
+      <c r="W442" s="4"/>
+      <c r="X442" s="4"/>
+      <c r="Y442" s="4"/>
+      <c r="Z442" s="4"/>
+      <c r="AA442" s="4"/>
+    </row>
+    <row r="443" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T443" s="4"/>
+      <c r="U443" s="4"/>
+      <c r="V443" s="4"/>
+      <c r="W443" s="4"/>
+      <c r="X443" s="4"/>
+      <c r="Y443" s="4"/>
+      <c r="Z443" s="4"/>
+      <c r="AA443" s="4"/>
+    </row>
+    <row r="444" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T444" s="4"/>
+      <c r="U444" s="4"/>
+      <c r="V444" s="4"/>
+      <c r="W444" s="4"/>
+      <c r="X444" s="4"/>
+      <c r="Y444" s="4"/>
+      <c r="Z444" s="4"/>
+      <c r="AA444" s="4"/>
+    </row>
+    <row r="445" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T445" s="4"/>
+      <c r="U445" s="4"/>
+      <c r="V445" s="4"/>
+      <c r="W445" s="4"/>
+      <c r="X445" s="4"/>
+      <c r="Y445" s="4"/>
+      <c r="Z445" s="4"/>
+      <c r="AA445" s="4"/>
+    </row>
+    <row r="446" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T446" s="4"/>
+      <c r="U446" s="4"/>
+      <c r="V446" s="4"/>
+      <c r="W446" s="4"/>
+      <c r="X446" s="4"/>
+      <c r="Y446" s="4"/>
+      <c r="Z446" s="4"/>
+      <c r="AA446" s="4"/>
+    </row>
+    <row r="447" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T447" s="4"/>
+      <c r="U447" s="4"/>
+      <c r="V447" s="4"/>
+      <c r="W447" s="4"/>
+      <c r="X447" s="4"/>
+      <c r="Y447" s="4"/>
+      <c r="Z447" s="4"/>
+      <c r="AA447" s="4"/>
+    </row>
+    <row r="448" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T448" s="4"/>
+      <c r="U448" s="4"/>
+      <c r="V448" s="4"/>
+      <c r="W448" s="4"/>
+      <c r="X448" s="4"/>
+      <c r="Y448" s="4"/>
+      <c r="Z448" s="4"/>
+      <c r="AA448" s="4"/>
+    </row>
+    <row r="449" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T449" s="4"/>
+      <c r="U449" s="4"/>
+      <c r="V449" s="4"/>
+      <c r="W449" s="4"/>
+      <c r="X449" s="4"/>
+      <c r="Y449" s="4"/>
+      <c r="Z449" s="4"/>
+      <c r="AA449" s="4"/>
+    </row>
+    <row r="450" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T450" s="4"/>
+      <c r="U450" s="4"/>
+      <c r="V450" s="4"/>
+      <c r="W450" s="4"/>
+      <c r="X450" s="4"/>
+      <c r="Y450" s="4"/>
+      <c r="Z450" s="4"/>
+      <c r="AA450" s="4"/>
+    </row>
+    <row r="451" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T451" s="4"/>
+      <c r="U451" s="4"/>
+      <c r="V451" s="4"/>
+      <c r="W451" s="4"/>
+      <c r="X451" s="4"/>
+      <c r="Y451" s="4"/>
+      <c r="Z451" s="4"/>
+      <c r="AA451" s="4"/>
+    </row>
+    <row r="452" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T452" s="4"/>
+      <c r="U452" s="4"/>
+      <c r="V452" s="4"/>
+      <c r="W452" s="4"/>
+      <c r="X452" s="4"/>
+      <c r="Y452" s="4"/>
+      <c r="Z452" s="4"/>
+      <c r="AA452" s="4"/>
+    </row>
+    <row r="453" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T453" s="4"/>
+      <c r="U453" s="4"/>
+      <c r="V453" s="4"/>
+      <c r="W453" s="4"/>
+      <c r="X453" s="4"/>
+      <c r="Y453" s="4"/>
+      <c r="Z453" s="4"/>
+      <c r="AA453" s="4"/>
+    </row>
+    <row r="454" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T454" s="4"/>
+      <c r="U454" s="4"/>
+      <c r="V454" s="4"/>
+      <c r="W454" s="4"/>
+      <c r="X454" s="4"/>
+      <c r="Y454" s="4"/>
+      <c r="Z454" s="4"/>
+      <c r="AA454" s="4"/>
+    </row>
+    <row r="455" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T455" s="4"/>
+      <c r="U455" s="4"/>
+      <c r="V455" s="4"/>
+      <c r="W455" s="4"/>
+      <c r="X455" s="4"/>
+      <c r="Y455" s="4"/>
+      <c r="Z455" s="4"/>
+      <c r="AA455" s="4"/>
+    </row>
+    <row r="456" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T456" s="4"/>
+      <c r="U456" s="4"/>
+      <c r="V456" s="4"/>
+      <c r="W456" s="4"/>
+      <c r="X456" s="4"/>
+      <c r="Y456" s="4"/>
+      <c r="Z456" s="4"/>
+      <c r="AA456" s="4"/>
+    </row>
+    <row r="457" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T457" s="4"/>
+      <c r="U457" s="4"/>
+      <c r="V457" s="4"/>
+      <c r="W457" s="4"/>
+      <c r="X457" s="4"/>
+      <c r="Y457" s="4"/>
+      <c r="Z457" s="4"/>
+      <c r="AA457" s="4"/>
+    </row>
+    <row r="458" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T458" s="4"/>
+      <c r="U458" s="4"/>
+      <c r="V458" s="4"/>
+      <c r="W458" s="4"/>
+      <c r="X458" s="4"/>
+      <c r="Y458" s="4"/>
+      <c r="Z458" s="4"/>
+      <c r="AA458" s="4"/>
+    </row>
+    <row r="459" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T459" s="4"/>
+      <c r="U459" s="4"/>
+      <c r="V459" s="4"/>
+      <c r="W459" s="4"/>
+      <c r="X459" s="4"/>
+      <c r="Y459" s="4"/>
+      <c r="Z459" s="4"/>
+      <c r="AA459" s="4"/>
+    </row>
+    <row r="460" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T460" s="4"/>
+      <c r="U460" s="4"/>
+      <c r="V460" s="4"/>
+      <c r="W460" s="4"/>
+      <c r="X460" s="4"/>
+      <c r="Y460" s="4"/>
+      <c r="Z460" s="4"/>
+      <c r="AA460" s="4"/>
+    </row>
+    <row r="461" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T461" s="4"/>
+      <c r="U461" s="4"/>
+      <c r="V461" s="4"/>
+      <c r="W461" s="4"/>
+      <c r="X461" s="4"/>
+      <c r="Y461" s="4"/>
+      <c r="Z461" s="4"/>
+      <c r="AA461" s="4"/>
+    </row>
+    <row r="462" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T462" s="4"/>
+      <c r="U462" s="4"/>
+      <c r="V462" s="4"/>
+      <c r="W462" s="4"/>
+      <c r="X462" s="4"/>
+      <c r="Y462" s="4"/>
+      <c r="Z462" s="4"/>
+      <c r="AA462" s="4"/>
+    </row>
+    <row r="463" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T463" s="4"/>
+      <c r="U463" s="4"/>
+      <c r="V463" s="4"/>
+      <c r="W463" s="4"/>
+      <c r="X463" s="4"/>
+      <c r="Y463" s="4"/>
+      <c r="Z463" s="4"/>
+      <c r="AA463" s="4"/>
+    </row>
+    <row r="464" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T464" s="4"/>
+      <c r="U464" s="4"/>
+      <c r="V464" s="4"/>
+      <c r="W464" s="4"/>
+      <c r="X464" s="4"/>
+      <c r="Y464" s="4"/>
+      <c r="Z464" s="4"/>
+      <c r="AA464" s="4"/>
+    </row>
+    <row r="465" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T465" s="4"/>
+      <c r="U465" s="4"/>
+      <c r="V465" s="4"/>
+      <c r="W465" s="4"/>
+      <c r="X465" s="4"/>
+      <c r="Y465" s="4"/>
+      <c r="Z465" s="4"/>
+      <c r="AA465" s="4"/>
+    </row>
+    <row r="466" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T466" s="4"/>
+      <c r="U466" s="4"/>
+      <c r="V466" s="4"/>
+      <c r="W466" s="4"/>
+      <c r="X466" s="4"/>
+      <c r="Y466" s="4"/>
+      <c r="Z466" s="4"/>
+      <c r="AA466" s="4"/>
+    </row>
+    <row r="467" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T467" s="4"/>
+      <c r="U467" s="4"/>
+      <c r="V467" s="4"/>
+      <c r="W467" s="4"/>
+      <c r="X467" s="4"/>
+      <c r="Y467" s="4"/>
+      <c r="Z467" s="4"/>
+      <c r="AA467" s="4"/>
+    </row>
+    <row r="468" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T468" s="4"/>
+      <c r="U468" s="4"/>
+      <c r="V468" s="4"/>
+      <c r="W468" s="4"/>
+      <c r="X468" s="4"/>
+      <c r="Y468" s="4"/>
+      <c r="Z468" s="4"/>
+      <c r="AA468" s="4"/>
+    </row>
+    <row r="469" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T469" s="4"/>
+      <c r="U469" s="4"/>
+      <c r="V469" s="4"/>
+      <c r="W469" s="4"/>
+      <c r="X469" s="4"/>
+      <c r="Y469" s="4"/>
+      <c r="Z469" s="4"/>
+      <c r="AA469" s="4"/>
+    </row>
+    <row r="470" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T470" s="4"/>
+      <c r="U470" s="4"/>
+      <c r="V470" s="4"/>
+      <c r="W470" s="4"/>
+      <c r="X470" s="4"/>
+      <c r="Y470" s="4"/>
+      <c r="Z470" s="4"/>
+      <c r="AA470" s="4"/>
+    </row>
+    <row r="471" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T471" s="4"/>
+      <c r="U471" s="4"/>
+      <c r="V471" s="4"/>
+      <c r="W471" s="4"/>
+      <c r="X471" s="4"/>
+      <c r="Y471" s="4"/>
+      <c r="Z471" s="4"/>
+      <c r="AA471" s="4"/>
+    </row>
+    <row r="472" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T472" s="4"/>
+      <c r="U472" s="4"/>
+      <c r="V472" s="4"/>
+      <c r="W472" s="4"/>
+      <c r="X472" s="4"/>
+      <c r="Y472" s="4"/>
+      <c r="Z472" s="4"/>
+      <c r="AA472" s="4"/>
+    </row>
+    <row r="473" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T473" s="4"/>
+      <c r="U473" s="4"/>
+      <c r="V473" s="4"/>
+      <c r="W473" s="4"/>
+      <c r="X473" s="4"/>
+      <c r="Y473" s="4"/>
+      <c r="Z473" s="4"/>
+      <c r="AA473" s="4"/>
+    </row>
+    <row r="474" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T474" s="4"/>
+      <c r="U474" s="4"/>
+      <c r="V474" s="4"/>
+      <c r="W474" s="4"/>
+      <c r="X474" s="4"/>
+      <c r="Y474" s="4"/>
+      <c r="Z474" s="4"/>
+      <c r="AA474" s="4"/>
+    </row>
+    <row r="475" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T475" s="4"/>
+      <c r="U475" s="4"/>
+      <c r="V475" s="4"/>
+      <c r="W475" s="4"/>
+      <c r="X475" s="4"/>
+      <c r="Y475" s="4"/>
+      <c r="Z475" s="4"/>
+      <c r="AA475" s="4"/>
+    </row>
+    <row r="476" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T476" s="4"/>
+      <c r="U476" s="4"/>
+      <c r="V476" s="4"/>
+      <c r="W476" s="4"/>
+      <c r="X476" s="4"/>
+      <c r="Y476" s="4"/>
+      <c r="Z476" s="4"/>
+      <c r="AA476" s="4"/>
+    </row>
+    <row r="477" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T477" s="4"/>
+      <c r="U477" s="4"/>
+      <c r="V477" s="4"/>
+      <c r="W477" s="4"/>
+      <c r="X477" s="4"/>
+      <c r="Y477" s="4"/>
+      <c r="Z477" s="4"/>
+      <c r="AA477" s="4"/>
+    </row>
+    <row r="478" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T478" s="4"/>
+      <c r="U478" s="4"/>
+      <c r="V478" s="4"/>
+      <c r="W478" s="4"/>
+      <c r="X478" s="4"/>
+      <c r="Y478" s="4"/>
+      <c r="Z478" s="4"/>
+      <c r="AA478" s="4"/>
+    </row>
+    <row r="479" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T479" s="4"/>
+      <c r="U479" s="4"/>
+      <c r="V479" s="4"/>
+      <c r="W479" s="4"/>
+      <c r="X479" s="4"/>
+      <c r="Y479" s="4"/>
+      <c r="Z479" s="4"/>
+      <c r="AA479" s="4"/>
+    </row>
+    <row r="480" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T480" s="4"/>
+      <c r="U480" s="4"/>
+      <c r="V480" s="4"/>
+      <c r="W480" s="4"/>
+      <c r="X480" s="4"/>
+      <c r="Y480" s="4"/>
+      <c r="Z480" s="4"/>
+      <c r="AA480" s="4"/>
+    </row>
+    <row r="481" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T481" s="4"/>
+      <c r="U481" s="4"/>
+      <c r="V481" s="4"/>
+      <c r="W481" s="4"/>
+      <c r="X481" s="4"/>
+      <c r="Y481" s="4"/>
+      <c r="Z481" s="4"/>
+      <c r="AA481" s="4"/>
+    </row>
+    <row r="482" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T482" s="4"/>
+      <c r="U482" s="4"/>
+      <c r="V482" s="4"/>
+      <c r="W482" s="4"/>
+      <c r="X482" s="4"/>
+      <c r="Y482" s="4"/>
+      <c r="Z482" s="4"/>
+      <c r="AA482" s="4"/>
+    </row>
+    <row r="483" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T483" s="4"/>
+      <c r="U483" s="4"/>
+      <c r="V483" s="4"/>
+      <c r="W483" s="4"/>
+      <c r="X483" s="4"/>
+      <c r="Y483" s="4"/>
+      <c r="Z483" s="4"/>
+      <c r="AA483" s="4"/>
+    </row>
+    <row r="484" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T484" s="4"/>
+      <c r="U484" s="4"/>
+      <c r="V484" s="4"/>
+      <c r="W484" s="4"/>
+      <c r="X484" s="4"/>
+      <c r="Y484" s="4"/>
+      <c r="Z484" s="4"/>
+      <c r="AA484" s="4"/>
+    </row>
+    <row r="485" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T485" s="4"/>
+      <c r="U485" s="4"/>
+      <c r="V485" s="4"/>
+      <c r="W485" s="4"/>
+      <c r="X485" s="4"/>
+      <c r="Y485" s="4"/>
+      <c r="Z485" s="4"/>
+      <c r="AA485" s="4"/>
+    </row>
+    <row r="486" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T486" s="4"/>
+      <c r="U486" s="4"/>
+      <c r="V486" s="4"/>
+      <c r="W486" s="4"/>
+      <c r="X486" s="4"/>
+      <c r="Y486" s="4"/>
+      <c r="Z486" s="4"/>
+      <c r="AA486" s="4"/>
+    </row>
+    <row r="487" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T487" s="4"/>
+      <c r="U487" s="4"/>
+      <c r="V487" s="4"/>
+      <c r="W487" s="4"/>
+      <c r="X487" s="4"/>
+      <c r="Y487" s="4"/>
+      <c r="Z487" s="4"/>
+      <c r="AA487" s="4"/>
+    </row>
+    <row r="488" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T488" s="4"/>
+      <c r="U488" s="4"/>
+      <c r="V488" s="4"/>
+      <c r="W488" s="4"/>
+      <c r="X488" s="4"/>
+      <c r="Y488" s="4"/>
+      <c r="Z488" s="4"/>
+      <c r="AA488" s="4"/>
+    </row>
+    <row r="489" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T489" s="4"/>
+      <c r="U489" s="4"/>
+      <c r="V489" s="4"/>
+      <c r="W489" s="4"/>
+      <c r="X489" s="4"/>
+      <c r="Y489" s="4"/>
+      <c r="Z489" s="4"/>
+      <c r="AA489" s="4"/>
+    </row>
+    <row r="490" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T490" s="4"/>
+      <c r="U490" s="4"/>
+      <c r="V490" s="4"/>
+      <c r="W490" s="4"/>
+      <c r="X490" s="4"/>
+      <c r="Y490" s="4"/>
+      <c r="Z490" s="4"/>
+      <c r="AA490" s="4"/>
+    </row>
+    <row r="491" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T491" s="4"/>
+      <c r="U491" s="4"/>
+      <c r="V491" s="4"/>
+      <c r="W491" s="4"/>
+      <c r="X491" s="4"/>
+      <c r="Y491" s="4"/>
+      <c r="Z491" s="4"/>
+      <c r="AA491" s="4"/>
+    </row>
+    <row r="492" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T492" s="4"/>
+      <c r="U492" s="4"/>
+      <c r="V492" s="4"/>
+      <c r="W492" s="4"/>
+      <c r="X492" s="4"/>
+      <c r="Y492" s="4"/>
+      <c r="Z492" s="4"/>
+      <c r="AA492" s="4"/>
+    </row>
+    <row r="493" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T493" s="4"/>
+      <c r="U493" s="4"/>
+      <c r="V493" s="4"/>
+      <c r="W493" s="4"/>
+      <c r="X493" s="4"/>
+      <c r="Y493" s="4"/>
+      <c r="Z493" s="4"/>
+      <c r="AA493" s="4"/>
+    </row>
+    <row r="494" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T494" s="4"/>
+      <c r="U494" s="4"/>
+      <c r="V494" s="4"/>
+      <c r="W494" s="4"/>
+      <c r="X494" s="4"/>
+      <c r="Y494" s="4"/>
+      <c r="Z494" s="4"/>
+      <c r="AA494" s="4"/>
+    </row>
+    <row r="495" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T495" s="4"/>
+      <c r="U495" s="4"/>
+      <c r="V495" s="4"/>
+      <c r="W495" s="4"/>
+      <c r="X495" s="4"/>
+      <c r="Y495" s="4"/>
+      <c r="Z495" s="4"/>
+      <c r="AA495" s="4"/>
+    </row>
+    <row r="496" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T496" s="4"/>
+      <c r="U496" s="4"/>
+      <c r="V496" s="4"/>
+      <c r="W496" s="4"/>
+      <c r="X496" s="4"/>
+      <c r="Y496" s="4"/>
+      <c r="Z496" s="4"/>
+      <c r="AA496" s="4"/>
+    </row>
+    <row r="497" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T497" s="4"/>
+      <c r="U497" s="4"/>
+      <c r="V497" s="4"/>
+      <c r="W497" s="4"/>
+      <c r="X497" s="4"/>
+      <c r="Y497" s="4"/>
+      <c r="Z497" s="4"/>
+      <c r="AA497" s="4"/>
+    </row>
+    <row r="498" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T498" s="4"/>
+      <c r="U498" s="4"/>
+      <c r="V498" s="4"/>
+      <c r="W498" s="4"/>
+      <c r="X498" s="4"/>
+      <c r="Y498" s="4"/>
+      <c r="Z498" s="4"/>
+      <c r="AA498" s="4"/>
+    </row>
+    <row r="499" spans="20:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T499" s="4"/>
+      <c r="U499" s="4"/>
+      <c r="V499" s="4"/>
+      <c r="W499" s="4"/>
+      <c r="X499" s="4"/>
+      <c r="Y499" s="4"/>
+      <c r="Z499" s="4"/>
+      <c r="AA499" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny_app/raw_data/responses_1.xlsx
+++ b/shiny_app/raw_data/responses_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottdetjen/Desktop/RProjects/Social_Connections_2024(5)/shiny_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA33C1B-73C7-114C-8273-8BD2779EBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1A97F8-DA40-AD49-B5C0-953F7D109BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="960" windowWidth="25300" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="1660" windowWidth="25300" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8212" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8212" uniqueCount="1431">
   <si>
     <t>1. Have you taken a gap year?</t>
   </si>
@@ -3730,21 +3730,12 @@
     <t>Jaida Wilson</t>
   </si>
   <si>
-    <t>No one. </t>
-  </si>
-  <si>
     <t>Abe Qasem</t>
   </si>
   <si>
     <t>Omar Elbakly</t>
   </si>
   <si>
-    <t>Don't Know</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
     <t>Nikki Prescott </t>
   </si>
   <si>
@@ -3754,9 +3745,6 @@
     <t>Ricky Lam </t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
     <t>Melissa Meng </t>
   </si>
   <si>
@@ -3814,9 +3802,6 @@
     <t>Fiona Zimmerman </t>
   </si>
   <si>
-    <t>Not applicable </t>
-  </si>
-  <si>
     <t>Nabin Poudel</t>
   </si>
   <si>
@@ -3844,9 +3829,6 @@
     <t>Jaeschel Acheampong </t>
   </si>
   <si>
-    <t>No idea </t>
-  </si>
-  <si>
     <t>Ali Makani</t>
   </si>
   <si>
@@ -3865,9 +3847,6 @@
     <t>Ada Cruz</t>
   </si>
   <si>
-    <t>No idea</t>
-  </si>
-  <si>
     <t>Sebastian Garcia</t>
   </si>
   <si>
@@ -3892,9 +3871,6 @@
     <t>Sarah McDonald</t>
   </si>
   <si>
-    <t>tarina ahuja</t>
-  </si>
-  <si>
     <t>Malaika Zaidi</t>
   </si>
   <si>
@@ -3913,9 +3889,6 @@
     <t>Caitlin Beirne</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Delaney Jones</t>
   </si>
   <si>
@@ -4045,9 +4018,6 @@
     <t>Same advisor</t>
   </si>
   <si>
-    <t>idk</t>
-  </si>
-  <si>
     <t>Jackelyn Baldwin</t>
   </si>
   <si>
@@ -4135,9 +4105,6 @@
     <t>Emma Zuckerman</t>
   </si>
   <si>
-    <t>Unsure?</t>
-  </si>
-  <si>
     <t>Angelica Carillo</t>
   </si>
   <si>
@@ -4159,9 +4126,6 @@
     <t>Sophia Zhang</t>
   </si>
   <si>
-    <t>no clue</t>
-  </si>
-  <si>
     <t>Nick GU</t>
   </si>
   <si>
@@ -4177,18 +4141,12 @@
     <t>Jaya Nayr</t>
   </si>
   <si>
-    <t>Lisa UC girl</t>
-  </si>
-  <si>
     <t>Azwayla Taylor</t>
   </si>
   <si>
     <t>Adrian Pedroza </t>
   </si>
   <si>
-    <t>not sure</t>
-  </si>
-  <si>
     <t>Larson Avery</t>
   </si>
   <si>
@@ -4204,9 +4162,6 @@
     <t>Patrick Thornton</t>
   </si>
   <si>
-    <t>I really don't know that many people, no idea</t>
-  </si>
-  <si>
     <t>Isabel Brown</t>
   </si>
   <si>
@@ -4288,9 +4243,6 @@
     <t>Annora Lee </t>
   </si>
   <si>
-    <t>n.a</t>
-  </si>
-  <si>
     <t>Will Nickols</t>
   </si>
   <si>
@@ -4315,9 +4267,6 @@
     <t>atlanta harvard meetup</t>
   </si>
   <si>
-    <t>no idea</t>
-  </si>
-  <si>
     <t>Will Troutman</t>
   </si>
   <si>
@@ -4342,9 +4291,6 @@
     <t>Jadyn Matthews</t>
   </si>
   <si>
-    <t>I have no idea</t>
-  </si>
-  <si>
     <t>Jolly Roo</t>
   </si>
   <si>
@@ -4364,6 +4310,9 @@
   </si>
   <si>
     <t>Onyeka Agwu</t>
+  </si>
+  <si>
+    <t>NA </t>
   </si>
 </sst>
 </file>
@@ -4644,8 +4593,8 @@
   </sheetPr>
   <dimension ref="A1:AF499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y402" sqref="Y402"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28639,7 +28588,7 @@
         <v>61</v>
       </c>
       <c r="X300" s="4" t="s">
-        <v>1236</v>
+        <v>125</v>
       </c>
       <c r="Y300" s="4" t="s">
         <v>48</v>
@@ -28696,7 +28645,7 @@
         <v>4</v>
       </c>
       <c r="O301" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P301" s="4" t="s">
         <v>86</v>
@@ -28705,7 +28654,7 @@
         <v>4</v>
       </c>
       <c r="R301" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="S301" s="4" t="s">
         <v>40</v>
@@ -28723,7 +28672,7 @@
         <v>214</v>
       </c>
       <c r="X301" s="4" t="s">
-        <v>1239</v>
+        <v>125</v>
       </c>
       <c r="Y301" s="4" t="s">
         <v>80</v>
@@ -28828,7 +28777,7 @@
         <v>36</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>22</v>
@@ -28855,7 +28804,7 @@
         <v>4</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="M303" s="4" t="s">
         <v>93</v>
@@ -28864,7 +28813,7 @@
         <v>1</v>
       </c>
       <c r="O303" s="4" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="P303" s="4" t="s">
         <v>42</v>
@@ -28873,7 +28822,7 @@
         <v>2</v>
       </c>
       <c r="R303" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="S303" s="4" t="s">
         <v>86</v>
@@ -28888,10 +28837,10 @@
         <v>0</v>
       </c>
       <c r="W303" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X303" s="4" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="Y303" s="4" t="s">
         <v>63</v>
@@ -28930,7 +28879,7 @@
         <v>53</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="J304" s="4" t="s">
         <v>55</v>
@@ -28939,7 +28888,7 @@
         <v>3</v>
       </c>
       <c r="L304" s="4" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="M304" s="4" t="s">
         <v>55</v>
@@ -28957,7 +28906,7 @@
         <v>2</v>
       </c>
       <c r="R304" s="4" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="S304" s="4" t="s">
         <v>25</v>
@@ -28996,7 +28945,7 @@
         <v>205</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>22</v>
@@ -29014,7 +28963,7 @@
         <v>86</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="J305" s="4" t="s">
         <v>86</v>
@@ -29032,7 +28981,7 @@
         <v>4</v>
       </c>
       <c r="O305" s="4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="P305" s="4" t="s">
         <v>120</v>
@@ -29041,7 +28990,7 @@
         <v>3</v>
       </c>
       <c r="R305" s="4" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="S305" s="4" t="s">
         <v>58</v>
@@ -29056,7 +29005,7 @@
         <v>0</v>
       </c>
       <c r="W305" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X305" s="4" t="s">
         <v>34</v>
@@ -29098,7 +29047,7 @@
         <v>86</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="J306" s="4" t="s">
         <v>86</v>
@@ -29182,25 +29131,25 @@
         <v>42</v>
       </c>
       <c r="I307" s="4" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="K307" s="4">
         <v>4</v>
       </c>
       <c r="L307" s="4" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M307" s="4" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="N307" s="4">
         <v>2</v>
       </c>
       <c r="O307" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="P307" s="4" t="s">
         <v>40</v>
@@ -29209,7 +29158,7 @@
         <v>3</v>
       </c>
       <c r="R307" s="4" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="S307" s="4" t="s">
         <v>40</v>
@@ -29266,7 +29215,7 @@
         <v>40</v>
       </c>
       <c r="I308" s="4" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="J308" s="4" t="s">
         <v>40</v>
@@ -29284,7 +29233,7 @@
         <v>2</v>
       </c>
       <c r="O308" s="4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="P308" s="4" t="s">
         <v>58</v>
@@ -29293,7 +29242,7 @@
         <v>2</v>
       </c>
       <c r="R308" s="4" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="S308" s="4" t="s">
         <v>58</v>
@@ -29311,7 +29260,7 @@
         <v>140</v>
       </c>
       <c r="X308" s="4" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="Y308" s="4" t="s">
         <v>63</v>
@@ -29359,7 +29308,7 @@
         <v>3</v>
       </c>
       <c r="L309" s="4" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="M309" s="4" t="s">
         <v>58</v>
@@ -29377,7 +29326,7 @@
         <v>3</v>
       </c>
       <c r="R309" s="4" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="S309" s="4" t="s">
         <v>58</v>
@@ -29395,7 +29344,7 @@
         <v>140</v>
       </c>
       <c r="X309" s="4" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Y309" s="4" t="s">
         <v>48</v>
@@ -29416,7 +29365,7 @@
         <v>205</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>37</v>
@@ -29434,28 +29383,28 @@
         <v>120</v>
       </c>
       <c r="I310" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="J310" s="4"/>
       <c r="K310" s="4">
         <v>1</v>
       </c>
       <c r="L310" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="M310" s="4"/>
       <c r="N310" s="4">
         <v>1</v>
       </c>
       <c r="O310" s="4" t="s">
-        <v>1264</v>
+        <v>1430</v>
       </c>
       <c r="P310" s="4"/>
       <c r="Q310" s="4">
         <v>1</v>
       </c>
       <c r="R310" s="4" t="s">
-        <v>1264</v>
+        <v>1430</v>
       </c>
       <c r="S310" s="4"/>
       <c r="T310" s="4">
@@ -29468,10 +29417,10 @@
         <v>0</v>
       </c>
       <c r="W310" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X310" s="4" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="Y310" s="4" t="s">
         <v>63</v>
@@ -29492,7 +29441,7 @@
         <v>205</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>37</v>
@@ -29510,7 +29459,7 @@
         <v>25</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="J311" s="4" t="s">
         <v>58</v>
@@ -29519,7 +29468,7 @@
         <v>4</v>
       </c>
       <c r="L311" s="4" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="M311" s="4" t="s">
         <v>58</v>
@@ -29528,7 +29477,7 @@
         <v>3</v>
       </c>
       <c r="O311" s="4" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="P311" s="4" t="s">
         <v>113</v>
@@ -29537,7 +29486,7 @@
         <v>1</v>
       </c>
       <c r="R311" s="4" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="S311" s="4" t="s">
         <v>93</v>
@@ -29552,10 +29501,10 @@
         <v>0</v>
       </c>
       <c r="W311" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X311" s="4" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="Y311" s="4" t="s">
         <v>63</v>
@@ -29594,7 +29543,7 @@
         <v>86</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="J312" s="4" t="s">
         <v>86</v>
@@ -29603,7 +29552,7 @@
         <v>4</v>
       </c>
       <c r="L312" s="4" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="M312" s="4" t="s">
         <v>40</v>
@@ -29621,7 +29570,7 @@
         <v>4</v>
       </c>
       <c r="R312" s="4" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="S312" s="4" t="s">
         <v>86</v>
@@ -29639,13 +29588,13 @@
         <v>20</v>
       </c>
       <c r="X312" s="4" t="s">
-        <v>1274</v>
+        <v>125</v>
       </c>
       <c r="Y312" s="4" t="s">
         <v>80</v>
       </c>
       <c r="Z312" s="4" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="AA312" s="4"/>
       <c r="AB312" s="4"/>
@@ -29696,7 +29645,7 @@
         <v>4</v>
       </c>
       <c r="O313" s="4" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="P313" s="4" t="s">
         <v>58</v>
@@ -29705,7 +29654,7 @@
         <v>5</v>
       </c>
       <c r="R313" s="4" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="S313" s="4" t="s">
         <v>58</v>
@@ -29771,7 +29720,7 @@
         <v>5</v>
       </c>
       <c r="L314" s="4" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="M314" s="4" t="s">
         <v>83</v>
@@ -29789,7 +29738,7 @@
         <v>5</v>
       </c>
       <c r="R314" s="4" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="S314" s="4" t="s">
         <v>83</v>
@@ -29813,7 +29762,7 @@
         <v>70</v>
       </c>
       <c r="Z314" s="4" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="AA314" s="4"/>
       <c r="AB314" s="4"/>
@@ -29864,7 +29813,7 @@
         <v>3</v>
       </c>
       <c r="O315" s="4" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="P315" s="4" t="s">
         <v>83</v>
@@ -29891,7 +29840,7 @@
         <v>61</v>
       </c>
       <c r="X315" s="4" t="s">
-        <v>1281</v>
+        <v>125</v>
       </c>
       <c r="Y315" s="4" t="s">
         <v>35</v>
@@ -29957,7 +29906,7 @@
         <v>3</v>
       </c>
       <c r="R316" s="4" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="S316" s="4" t="s">
         <v>42</v>
@@ -29975,13 +29924,13 @@
         <v>33</v>
       </c>
       <c r="X316" s="4" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="Y316" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Z316" s="4" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="AA316" s="4"/>
       <c r="AB316" s="4"/>
@@ -30014,10 +29963,10 @@
         <v>53</v>
       </c>
       <c r="I317" s="4" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="J317" s="4" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="K317" s="4">
         <v>5</v>
@@ -30059,7 +30008,7 @@
         <v>140</v>
       </c>
       <c r="X317" s="4" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="Y317" s="4" t="s">
         <v>70</v>
@@ -30107,7 +30056,7 @@
         <v>5</v>
       </c>
       <c r="L318" s="4" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="M318" s="4" t="s">
         <v>40</v>
@@ -30116,7 +30065,7 @@
         <v>4</v>
       </c>
       <c r="O318" s="4" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="P318" s="4" t="s">
         <v>86</v>
@@ -30143,13 +30092,13 @@
         <v>140</v>
       </c>
       <c r="X318" s="4" t="s">
-        <v>1290</v>
+        <v>249</v>
       </c>
       <c r="Y318" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Z318" s="4" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="AA318" s="4"/>
       <c r="AB318" s="4"/>
@@ -30200,7 +30149,7 @@
         <v>4</v>
       </c>
       <c r="O319" s="4" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="P319" s="4" t="s">
         <v>42</v>
@@ -30209,7 +30158,7 @@
         <v>5</v>
       </c>
       <c r="R319" s="4" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="S319" s="4" t="s">
         <v>58</v>
@@ -30275,7 +30224,7 @@
         <v>5</v>
       </c>
       <c r="L320" s="4" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="M320" s="4" t="s">
         <v>40</v>
@@ -30284,7 +30233,7 @@
         <v>5</v>
       </c>
       <c r="O320" s="4" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="P320" s="4" t="s">
         <v>58</v>
@@ -30350,7 +30299,7 @@
         <v>25</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="J321" s="4" t="s">
         <v>40</v>
@@ -30377,7 +30326,7 @@
         <v>4</v>
       </c>
       <c r="R321" s="4" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="S321" s="4" t="s">
         <v>25</v>
@@ -30392,10 +30341,10 @@
         <v>7</v>
       </c>
       <c r="W321" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X321" s="4" t="s">
-        <v>1297</v>
+        <v>125</v>
       </c>
       <c r="Y321" s="4" t="s">
         <v>80</v>
@@ -30434,7 +30383,7 @@
         <v>25</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="J322" s="4" t="s">
         <v>40</v>
@@ -30443,7 +30392,7 @@
         <v>4</v>
       </c>
       <c r="L322" s="4" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="M322" s="4" t="s">
         <v>40</v>
@@ -30461,7 +30410,7 @@
         <v>3</v>
       </c>
       <c r="R322" s="4" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="S322" s="4" t="s">
         <v>86</v>
@@ -30518,7 +30467,7 @@
         <v>42</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="J323" s="4" t="s">
         <v>42</v>
@@ -30545,7 +30494,7 @@
         <v>2</v>
       </c>
       <c r="R323" s="4" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="S323" s="4" t="s">
         <v>42</v>
@@ -30602,7 +30551,7 @@
         <v>58</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="J324" s="4" t="s">
         <v>42</v>
@@ -30629,7 +30578,7 @@
         <v>4</v>
       </c>
       <c r="R324" s="4" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="S324" s="4" t="s">
         <v>83</v>
@@ -30653,7 +30602,7 @@
         <v>48</v>
       </c>
       <c r="Z324" s="4" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="AA324" s="4"/>
       <c r="AB324" s="4"/>
@@ -30686,7 +30635,7 @@
         <v>40</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="J325" s="4" t="s">
         <v>58</v>
@@ -30695,7 +30644,7 @@
         <v>5</v>
       </c>
       <c r="L325" s="4" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="M325" s="4" t="s">
         <v>42</v>
@@ -30704,7 +30653,7 @@
         <v>5</v>
       </c>
       <c r="O325" s="4" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="P325" s="4" t="s">
         <v>42</v>
@@ -30752,7 +30701,7 @@
         <v>205</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>22</v>
@@ -30770,7 +30719,7 @@
         <v>53</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="J326" s="4" t="s">
         <v>42</v>
@@ -30812,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="W326" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X326" s="4" t="s">
         <v>34</v>
@@ -30863,10 +30812,10 @@
         <v>5</v>
       </c>
       <c r="L327" s="4" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="M327" s="4" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="N327" s="4">
         <v>4</v>
@@ -30875,7 +30824,7 @@
         <v>398</v>
       </c>
       <c r="P327" s="4" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="Q327" s="4">
         <v>4</v>
@@ -30884,7 +30833,7 @@
         <v>817</v>
       </c>
       <c r="S327" s="4" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="T327" s="4">
         <v>4</v>
@@ -30938,7 +30887,7 @@
         <v>40</v>
       </c>
       <c r="I328" s="4" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="J328" s="4" t="s">
         <v>40</v>
@@ -30947,7 +30896,7 @@
         <v>5</v>
       </c>
       <c r="L328" s="4" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="M328" s="4" t="s">
         <v>40</v>
@@ -30956,7 +30905,7 @@
         <v>4</v>
       </c>
       <c r="O328" s="4" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="P328" s="4" t="s">
         <v>55</v>
@@ -30965,7 +30914,7 @@
         <v>4</v>
       </c>
       <c r="R328" s="4" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="S328" s="4" t="s">
         <v>58</v>
@@ -30989,7 +30938,7 @@
         <v>35</v>
       </c>
       <c r="Z328" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="AA328" s="4"/>
       <c r="AB328" s="4"/>
@@ -31022,7 +30971,7 @@
         <v>53</v>
       </c>
       <c r="I329" s="4" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="J329" s="4" t="s">
         <v>58</v>
@@ -31031,7 +30980,7 @@
         <v>4</v>
       </c>
       <c r="L329" s="4" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="M329" s="4" t="s">
         <v>40</v>
@@ -31040,7 +30989,7 @@
         <v>4</v>
       </c>
       <c r="O329" s="4" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="P329" s="4" t="s">
         <v>83</v>
@@ -31049,7 +30998,7 @@
         <v>4</v>
       </c>
       <c r="R329" s="4" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="S329" s="4" t="s">
         <v>58</v>
@@ -31067,13 +31016,13 @@
         <v>140</v>
       </c>
       <c r="X329" s="4" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="Y329" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Z329" s="4" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="AA329" s="4"/>
       <c r="AB329" s="4"/>
@@ -31118,7 +31067,7 @@
         <v>88</v>
       </c>
       <c r="M330" s="4" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="N330" s="4">
         <v>4</v>
@@ -31133,7 +31082,7 @@
         <v>4</v>
       </c>
       <c r="R330" s="4" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="S330" s="4" t="s">
         <v>42</v>
@@ -31157,7 +31106,7 @@
         <v>35</v>
       </c>
       <c r="Z330" s="4" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="AA330" s="4"/>
       <c r="AB330" s="4"/>
@@ -31190,7 +31139,7 @@
         <v>40</v>
       </c>
       <c r="I331" s="4" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="J331" s="4" t="s">
         <v>40</v>
@@ -31199,7 +31148,7 @@
         <v>4</v>
       </c>
       <c r="L331" s="4" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="M331" s="4" t="s">
         <v>83</v>
@@ -31208,7 +31157,7 @@
         <v>4</v>
       </c>
       <c r="O331" s="4" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="P331" s="4" t="s">
         <v>40</v>
@@ -31235,7 +31184,7 @@
         <v>33</v>
       </c>
       <c r="X331" s="4" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="Y331" s="4" t="s">
         <v>35</v>
@@ -31292,7 +31241,7 @@
         <v>3</v>
       </c>
       <c r="O332" s="4" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="P332" s="4" t="s">
         <v>86</v>
@@ -31358,7 +31307,7 @@
         <v>113</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="J333" s="4" t="s">
         <v>55</v>
@@ -31367,7 +31316,7 @@
         <v>5</v>
       </c>
       <c r="L333" s="4" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="M333" s="4" t="s">
         <v>113</v>
@@ -31376,7 +31325,7 @@
         <v>4</v>
       </c>
       <c r="O333" s="4" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="P333" s="4" t="s">
         <v>113</v>
@@ -31385,7 +31334,7 @@
         <v>3</v>
       </c>
       <c r="R333" s="4" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="S333" s="4" t="s">
         <v>58</v>
@@ -31403,7 +31352,7 @@
         <v>78</v>
       </c>
       <c r="X333" s="4" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="Y333" s="4" t="s">
         <v>35</v>
@@ -31442,7 +31391,7 @@
         <v>53</v>
       </c>
       <c r="I334" s="4" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J334" s="4" t="s">
         <v>55</v>
@@ -31460,7 +31409,7 @@
         <v>3</v>
       </c>
       <c r="O334" s="4" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P334" s="4" t="s">
         <v>55</v>
@@ -31508,7 +31457,7 @@
         <v>205</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>22</v>
@@ -31535,7 +31484,7 @@
         <v>5</v>
       </c>
       <c r="L335" s="4" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="M335" s="4" t="s">
         <v>42</v>
@@ -31544,7 +31493,7 @@
         <v>3</v>
       </c>
       <c r="O335" s="4" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="P335" s="4" t="s">
         <v>42</v>
@@ -31553,7 +31502,7 @@
         <v>4</v>
       </c>
       <c r="R335" s="4" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="S335" s="4" t="s">
         <v>74</v>
@@ -31568,10 +31517,10 @@
         <v>0</v>
       </c>
       <c r="W335" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X335" s="4" t="s">
-        <v>1281</v>
+        <v>125</v>
       </c>
       <c r="Y335" s="4" t="s">
         <v>35</v>
@@ -31703,7 +31652,7 @@
         <v>4</v>
       </c>
       <c r="L337" s="4" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="M337" s="4" t="s">
         <v>58</v>
@@ -31721,10 +31670,10 @@
         <v>3</v>
       </c>
       <c r="R337" s="4" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="S337" s="4" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="T337" s="4">
         <v>3</v>
@@ -31760,7 +31709,7 @@
         <v>36</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>22</v>
@@ -31820,10 +31769,10 @@
         <v>0</v>
       </c>
       <c r="W338" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X338" s="4" t="s">
-        <v>1341</v>
+        <v>125</v>
       </c>
       <c r="Y338" s="4" t="s">
         <v>80</v>
@@ -31913,7 +31862,7 @@
         <v>48</v>
       </c>
       <c r="Z339" s="4" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="AA339" s="4"/>
       <c r="AB339" s="4"/>
@@ -31955,7 +31904,7 @@
         <v>5</v>
       </c>
       <c r="L340" s="4" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="M340" s="4" t="s">
         <v>40</v>
@@ -32030,7 +31979,7 @@
         <v>25</v>
       </c>
       <c r="I341" s="4" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="J341" s="4" t="s">
         <v>25</v>
@@ -32039,7 +31988,7 @@
         <v>4</v>
       </c>
       <c r="L341" s="4" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="M341" s="4" t="s">
         <v>25</v>
@@ -32132,7 +32081,7 @@
         <v>3</v>
       </c>
       <c r="O342" s="4" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="P342" s="4" t="s">
         <v>55</v>
@@ -32180,7 +32129,7 @@
         <v>36</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>37</v>
@@ -32216,7 +32165,7 @@
         <v>4</v>
       </c>
       <c r="O343" s="4" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="P343" s="4" t="s">
         <v>42</v>
@@ -32225,7 +32174,7 @@
         <v>4</v>
       </c>
       <c r="R343" s="4" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="S343" s="4" t="s">
         <v>25</v>
@@ -32240,7 +32189,7 @@
         <v>0</v>
       </c>
       <c r="W343" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X343" s="4" t="s">
         <v>672</v>
@@ -32282,7 +32231,7 @@
         <v>25</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="J344" s="4" t="s">
         <v>55</v>
@@ -32300,7 +32249,7 @@
         <v>3</v>
       </c>
       <c r="O344" s="4" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="P344" s="4" t="s">
         <v>58</v>
@@ -32393,7 +32342,7 @@
         <v>4</v>
       </c>
       <c r="R345" s="4" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="S345" s="4" t="s">
         <v>86</v>
@@ -32411,7 +32360,7 @@
         <v>220</v>
       </c>
       <c r="X345" s="4" t="s">
-        <v>465</v>
+        <v>125</v>
       </c>
       <c r="Y345" s="4" t="s">
         <v>70</v>
@@ -32450,7 +32399,7 @@
         <v>53</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="J346" s="4" t="s">
         <v>86</v>
@@ -32477,7 +32426,7 @@
         <v>4</v>
       </c>
       <c r="R346" s="4" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="S346" s="4" t="s">
         <v>58</v>
@@ -32534,7 +32483,7 @@
         <v>53</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>55</v>
@@ -32543,7 +32492,7 @@
         <v>5</v>
       </c>
       <c r="L347" s="4" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="M347" s="4" t="s">
         <v>55</v>
@@ -32552,7 +32501,7 @@
         <v>5</v>
       </c>
       <c r="O347" s="4" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="P347" s="4" t="s">
         <v>83</v>
@@ -32561,7 +32510,7 @@
         <v>3</v>
       </c>
       <c r="R347" s="4" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="S347" s="4" t="s">
         <v>58</v>
@@ -32585,7 +32534,7 @@
         <v>48</v>
       </c>
       <c r="Z347" s="4" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="AA347" s="4"/>
       <c r="AB347" s="4"/>
@@ -32627,7 +32576,7 @@
         <v>4</v>
       </c>
       <c r="L348" s="4" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="M348" s="4" t="s">
         <v>86</v>
@@ -32720,7 +32669,7 @@
         <v>4</v>
       </c>
       <c r="O349" s="4" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="P349" s="4" t="s">
         <v>58</v>
@@ -32747,7 +32696,7 @@
         <v>20</v>
       </c>
       <c r="X349" s="4" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="Y349" s="4" t="s">
         <v>48</v>
@@ -32897,7 +32846,7 @@
         <v>4</v>
       </c>
       <c r="R351" s="4" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="S351" s="4" t="s">
         <v>40</v>
@@ -32963,7 +32912,7 @@
         <v>3</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="M352" s="4" t="s">
         <v>25</v>
@@ -32972,14 +32921,14 @@
         <v>3</v>
       </c>
       <c r="O352" s="4" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="P352" s="4"/>
       <c r="Q352" s="4">
         <v>1</v>
       </c>
       <c r="R352" s="4" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="S352" s="4" t="s">
         <v>74</v>
@@ -33003,7 +32952,7 @@
         <v>35</v>
       </c>
       <c r="Z352" s="4" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="AA352" s="4"/>
       <c r="AB352" s="4"/>
@@ -33045,7 +32994,7 @@
         <v>5</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="M353" s="4" t="s">
         <v>58</v>
@@ -33054,7 +33003,7 @@
         <v>4</v>
       </c>
       <c r="O353" s="4" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="P353" s="4" t="s">
         <v>40</v>
@@ -33147,7 +33096,7 @@
         <v>3</v>
       </c>
       <c r="R354" s="4" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="S354" s="4" t="s">
         <v>40</v>
@@ -33297,7 +33246,7 @@
         <v>3</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="M356" s="4" t="s">
         <v>113</v>
@@ -33306,7 +33255,7 @@
         <v>4</v>
       </c>
       <c r="O356" s="4" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="P356" s="4" t="s">
         <v>74</v>
@@ -33315,7 +33264,7 @@
         <v>4</v>
       </c>
       <c r="R356" s="4" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="S356" s="4" t="s">
         <v>58</v>
@@ -33417,7 +33366,7 @@
         <v>20</v>
       </c>
       <c r="X357" s="4" t="s">
-        <v>1371</v>
+        <v>125</v>
       </c>
       <c r="Y357" s="4" t="s">
         <v>35</v>
@@ -33456,7 +33405,7 @@
         <v>40</v>
       </c>
       <c r="I358" s="4" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="J358" s="4" t="s">
         <v>113</v>
@@ -33465,7 +33414,7 @@
         <v>3</v>
       </c>
       <c r="L358" s="4" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="M358" s="4" t="s">
         <v>113</v>
@@ -33474,7 +33423,7 @@
         <v>3</v>
       </c>
       <c r="O358" s="4" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="P358" s="4" t="s">
         <v>113</v>
@@ -33483,7 +33432,7 @@
         <v>3</v>
       </c>
       <c r="R358" s="4" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="S358" s="4" t="s">
         <v>113</v>
@@ -33558,7 +33507,7 @@
         <v>3</v>
       </c>
       <c r="O359" s="4" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="P359" s="4" t="s">
         <v>55</v>
@@ -33567,7 +33516,7 @@
         <v>3</v>
       </c>
       <c r="R359" s="4" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="S359" s="4" t="s">
         <v>55</v>
@@ -33633,7 +33582,7 @@
         <v>5</v>
       </c>
       <c r="L360" s="4" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="M360" s="4" t="s">
         <v>55</v>
@@ -33753,7 +33702,7 @@
         <v>140</v>
       </c>
       <c r="X361" s="4" t="s">
-        <v>1379</v>
+        <v>125</v>
       </c>
       <c r="Y361" s="4" t="s">
         <v>48</v>
@@ -33837,7 +33786,7 @@
         <v>61</v>
       </c>
       <c r="X362" s="4" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="Y362" s="4" t="s">
         <v>48</v>
@@ -33894,7 +33843,7 @@
         <v>4</v>
       </c>
       <c r="O363" s="4" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="P363" s="4" t="s">
         <v>113</v>
@@ -33969,7 +33918,7 @@
         <v>5</v>
       </c>
       <c r="L364" s="4" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="M364" s="4" t="s">
         <v>58</v>
@@ -33987,7 +33936,7 @@
         <v>4</v>
       </c>
       <c r="R364" s="4" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="S364" s="4" t="s">
         <v>58</v>
@@ -34005,7 +33954,7 @@
         <v>214</v>
       </c>
       <c r="X364" s="4" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="Y364" s="4" t="s">
         <v>48</v>
@@ -34062,7 +34011,7 @@
         <v>3</v>
       </c>
       <c r="O365" s="4" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="P365" s="4" t="s">
         <v>86</v>
@@ -34089,7 +34038,7 @@
         <v>20</v>
       </c>
       <c r="X365" s="4" t="s">
-        <v>1385</v>
+        <v>246</v>
       </c>
       <c r="Y365" s="4" t="s">
         <v>48</v>
@@ -34155,7 +34104,7 @@
         <v>5</v>
       </c>
       <c r="R366" s="4" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="S366" s="4" t="s">
         <v>55</v>
@@ -34173,13 +34122,13 @@
         <v>33</v>
       </c>
       <c r="X366" s="4" t="s">
-        <v>1388</v>
+        <v>125</v>
       </c>
       <c r="Y366" s="4" t="s">
         <v>80</v>
       </c>
       <c r="Z366" s="4" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="AA366" s="4"/>
       <c r="AB366" s="4"/>
@@ -34230,7 +34179,7 @@
         <v>2</v>
       </c>
       <c r="O367" s="4" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="P367" s="4" t="s">
         <v>25</v>
@@ -34257,13 +34206,13 @@
         <v>214</v>
       </c>
       <c r="X367" s="4" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="Y367" s="4" t="s">
         <v>80</v>
       </c>
       <c r="Z367" s="4" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="AA367" s="4"/>
       <c r="AB367" s="4"/>
@@ -34296,7 +34245,7 @@
         <v>53</v>
       </c>
       <c r="I368" s="4" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="J368" s="4" t="s">
         <v>55</v>
@@ -34305,7 +34254,7 @@
         <v>4</v>
       </c>
       <c r="L368" s="4" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="M368" s="4" t="s">
         <v>120</v>
@@ -34314,7 +34263,7 @@
         <v>4</v>
       </c>
       <c r="O368" s="4" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="P368" s="4" t="s">
         <v>55</v>
@@ -34323,7 +34272,7 @@
         <v>2</v>
       </c>
       <c r="R368" s="4" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="S368" s="4" t="s">
         <v>55</v>
@@ -34341,7 +34290,7 @@
         <v>140</v>
       </c>
       <c r="X368" s="4" t="s">
-        <v>1394</v>
+        <v>125</v>
       </c>
       <c r="Y368" s="4" t="s">
         <v>63</v>
@@ -34473,7 +34422,7 @@
         <v>5</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="M370" s="4" t="s">
         <v>120</v>
@@ -34482,7 +34431,7 @@
         <v>4</v>
       </c>
       <c r="O370" s="4" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="P370" s="4" t="s">
         <v>120</v>
@@ -34491,7 +34440,7 @@
         <v>3</v>
       </c>
       <c r="R370" s="4" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="S370" s="4" t="s">
         <v>120</v>
@@ -34530,7 +34479,7 @@
         <v>36</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>22</v>
@@ -34548,7 +34497,7 @@
         <v>42</v>
       </c>
       <c r="I371" s="4" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="J371" s="4" t="s">
         <v>120</v>
@@ -34557,7 +34506,7 @@
         <v>3</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="M371" s="4" t="s">
         <v>42</v>
@@ -34566,7 +34515,7 @@
         <v>3</v>
       </c>
       <c r="O371" s="4" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="P371" s="4" t="s">
         <v>42</v>
@@ -34590,7 +34539,7 @@
         <v>0</v>
       </c>
       <c r="W371" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X371" s="4" t="s">
         <v>625</v>
@@ -34599,7 +34548,7 @@
         <v>48</v>
       </c>
       <c r="Z371" s="4" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="AA371" s="4"/>
       <c r="AB371" s="4"/>
@@ -34635,13 +34584,13 @@
         <v>268</v>
       </c>
       <c r="J372" s="4" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="K372" s="4">
         <v>4</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="M372" s="4" t="s">
         <v>86</v>
@@ -34650,7 +34599,7 @@
         <v>5</v>
       </c>
       <c r="O372" s="4" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="P372" s="4" t="s">
         <v>58</v>
@@ -34659,7 +34608,7 @@
         <v>3</v>
       </c>
       <c r="R372" s="4" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="S372" s="4" t="s">
         <v>40</v>
@@ -34683,7 +34632,7 @@
         <v>35</v>
       </c>
       <c r="Z372" s="4" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="AA372" s="4"/>
       <c r="AB372" s="4"/>
@@ -34902,7 +34851,7 @@
         <v>3</v>
       </c>
       <c r="O375" s="4" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="P375" s="4" t="s">
         <v>55</v>
@@ -34968,7 +34917,7 @@
         <v>25</v>
       </c>
       <c r="I376" s="4" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="J376" s="4" t="s">
         <v>42</v>
@@ -35013,7 +34962,7 @@
         <v>220</v>
       </c>
       <c r="X376" s="4" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="Y376" s="4" t="s">
         <v>48</v>
@@ -35070,7 +35019,7 @@
         <v>3</v>
       </c>
       <c r="O377" s="4" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="P377" s="4" t="s">
         <v>40</v>
@@ -35079,7 +35028,7 @@
         <v>3</v>
       </c>
       <c r="R377" s="4" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="S377" s="4" t="s">
         <v>58</v>
@@ -35136,7 +35085,7 @@
         <v>53</v>
       </c>
       <c r="I378" s="4" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="J378" s="4" t="s">
         <v>40</v>
@@ -35145,7 +35094,7 @@
         <v>5</v>
       </c>
       <c r="L378" s="4" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="M378" s="4" t="s">
         <v>58</v>
@@ -35154,7 +35103,7 @@
         <v>5</v>
       </c>
       <c r="O378" s="4" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="P378" s="4" t="s">
         <v>25</v>
@@ -35163,7 +35112,7 @@
         <v>4</v>
       </c>
       <c r="R378" s="4" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="S378" s="4" t="s">
         <v>83</v>
@@ -35202,13 +35151,13 @@
         <v>205</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="F379" s="4" t="s">
         <v>206</v>
@@ -35232,13 +35181,13 @@
         <v>1208</v>
       </c>
       <c r="M379" s="4" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="N379" s="4">
         <v>4</v>
       </c>
       <c r="O379" s="4" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="P379" s="4" t="s">
         <v>120</v>
@@ -35262,7 +35211,7 @@
         <v>0</v>
       </c>
       <c r="W379" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X379" s="4" t="s">
         <v>1039</v>
@@ -35283,7 +35232,7 @@
         <v>19</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>50</v>
@@ -35304,7 +35253,7 @@
         <v>58</v>
       </c>
       <c r="I380" s="4" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="J380" s="4" t="s">
         <v>83</v>
@@ -35331,7 +35280,7 @@
         <v>3</v>
       </c>
       <c r="R380" s="4" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="S380" s="4" t="s">
         <v>83</v>
@@ -35349,7 +35298,7 @@
         <v>220</v>
       </c>
       <c r="X380" s="4" t="s">
-        <v>1422</v>
+        <v>125</v>
       </c>
       <c r="Y380" s="4" t="s">
         <v>35</v>
@@ -35388,7 +35337,7 @@
         <v>40</v>
       </c>
       <c r="I381" s="4" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="J381" s="4" t="s">
         <v>40</v>
@@ -35481,7 +35430,7 @@
         <v>4</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="M382" s="4" t="s">
         <v>55</v>
@@ -35499,7 +35448,7 @@
         <v>4</v>
       </c>
       <c r="R382" s="4" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="S382" s="4" t="s">
         <v>113</v>
@@ -35574,7 +35523,7 @@
         <v>5</v>
       </c>
       <c r="O383" s="4" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="P383" s="4" t="s">
         <v>42</v>
@@ -35619,10 +35568,10 @@
         <v>89</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>22</v>
@@ -35640,7 +35589,7 @@
         <v>58</v>
       </c>
       <c r="I384" s="4" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="J384" s="4" t="s">
         <v>86</v>
@@ -35658,7 +35607,7 @@
         <v>3</v>
       </c>
       <c r="O384" s="4" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="P384" s="4" t="s">
         <v>40</v>
@@ -35685,13 +35634,13 @@
         <v>220</v>
       </c>
       <c r="X384" s="4" t="s">
-        <v>1297</v>
+        <v>125</v>
       </c>
       <c r="Y384" s="4" t="s">
         <v>63</v>
       </c>
       <c r="Z384" s="4" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="AA384" s="4"/>
       <c r="AB384" s="4"/>
@@ -35724,7 +35673,7 @@
         <v>58</v>
       </c>
       <c r="I385" s="4" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="J385" s="4" t="s">
         <v>83</v>
@@ -35733,7 +35682,7 @@
         <v>4</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="M385" s="4" t="s">
         <v>83</v>
@@ -35754,7 +35703,7 @@
         <v>772</v>
       </c>
       <c r="S385" s="4" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="T385" s="4">
         <v>4</v>
@@ -35769,7 +35718,7 @@
         <v>140</v>
       </c>
       <c r="X385" s="4" t="s">
-        <v>1431</v>
+        <v>125</v>
       </c>
       <c r="Y385" s="4" t="s">
         <v>35</v>
@@ -35808,7 +35757,7 @@
         <v>58</v>
       </c>
       <c r="I386" s="4" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="J386" s="4" t="s">
         <v>40</v>
@@ -35817,7 +35766,7 @@
         <v>4</v>
       </c>
       <c r="L386" s="4" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="M386" s="4" t="s">
         <v>86</v>
@@ -35826,7 +35775,7 @@
         <v>4</v>
       </c>
       <c r="O386" s="4" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
       <c r="P386" s="4" t="s">
         <v>120</v>
@@ -35835,7 +35784,7 @@
         <v>3</v>
       </c>
       <c r="R386" s="4" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="S386" s="4" t="s">
         <v>58</v>
@@ -35853,7 +35802,7 @@
         <v>33</v>
       </c>
       <c r="X386" s="4" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="Y386" s="4" t="s">
         <v>48</v>
@@ -35874,7 +35823,7 @@
         <v>205</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>22</v>
@@ -35910,7 +35859,7 @@
         <v>4</v>
       </c>
       <c r="O387" s="4" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="P387" s="4" t="s">
         <v>86</v>
@@ -35919,7 +35868,7 @@
         <v>3</v>
       </c>
       <c r="R387" s="4" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="S387" s="4" t="s">
         <v>93</v>
@@ -35934,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="W387" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X387" s="4" t="s">
         <v>191</v>
@@ -36021,7 +35970,7 @@
         <v>20</v>
       </c>
       <c r="X388" s="4" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="Y388" s="4" t="s">
         <v>48</v>
@@ -36042,7 +35991,7 @@
         <v>36</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>22</v>
@@ -36102,16 +36051,16 @@
         <v>0</v>
       </c>
       <c r="W389" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X389" s="4" t="s">
-        <v>1440</v>
+        <v>125</v>
       </c>
       <c r="Y389" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Z389" s="4" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="AA389" s="4"/>
       <c r="AB389" s="4"/>
@@ -36153,7 +36102,7 @@
         <v>4</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>1441</v>
+        <v>1423</v>
       </c>
       <c r="M390" s="4" t="s">
         <v>25</v>
@@ -36162,7 +36111,7 @@
         <v>4</v>
       </c>
       <c r="O390" s="4" t="s">
-        <v>1442</v>
+        <v>1424</v>
       </c>
       <c r="P390" s="4" t="s">
         <v>58</v>
@@ -36228,7 +36177,7 @@
         <v>42</v>
       </c>
       <c r="I391" s="4" t="s">
-        <v>1444</v>
+        <v>1426</v>
       </c>
       <c r="J391" s="4" t="s">
         <v>42</v>
@@ -36237,7 +36186,7 @@
         <v>4</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>1445</v>
+        <v>1427</v>
       </c>
       <c r="M391" s="4" t="s">
         <v>83</v>
@@ -36246,7 +36195,7 @@
         <v>2</v>
       </c>
       <c r="O391" s="4" t="s">
-        <v>1446</v>
+        <v>1428</v>
       </c>
       <c r="P391" s="4" t="s">
         <v>42</v>
@@ -36255,7 +36204,7 @@
         <v>2</v>
       </c>
       <c r="R391" s="4" t="s">
-        <v>1447</v>
+        <v>1429</v>
       </c>
       <c r="S391" s="4" t="s">
         <v>83</v>
@@ -36270,7 +36219,7 @@
         <v>1</v>
       </c>
       <c r="W391" s="4" t="s">
-        <v>1244</v>
+        <v>125</v>
       </c>
       <c r="X391" s="4" t="s">
         <v>670</v>
@@ -36279,7 +36228,7 @@
         <v>63</v>
       </c>
       <c r="Z391" s="4" t="s">
-        <v>1443</v>
+        <v>1425</v>
       </c>
       <c r="AA391" s="4"/>
       <c r="AB391" s="4"/>
